--- a/Raw_Data/Acoustic_Recording_Quant.xlsx
+++ b/Raw_Data/Acoustic_Recording_Quant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sdimo\Documents\GitHub\Sean_Acoustics\Raw_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B447AA23-69B6-4089-917C-05619A7C8E57}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C335A6C9-C40E-4F75-8543-5D3E463D41C3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="3" xr2:uid="{6650607F-3B1E-437E-98AB-573CFE920560}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{6650607F-3B1E-437E-98AB-573CFE920560}"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3196" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3240" uniqueCount="69">
   <si>
     <t>Rules of Sound Analysis</t>
   </si>
@@ -219,6 +219,30 @@
   </si>
   <si>
     <t>Really strong knocks</t>
+  </si>
+  <si>
+    <t>Dolphins present throughout</t>
+  </si>
+  <si>
+    <t>Chirp</t>
+  </si>
+  <si>
+    <t>1 UNF, 1 Buzz</t>
+  </si>
+  <si>
+    <t>Lots of sounds that look like knocks</t>
+  </si>
+  <si>
+    <t>1 Buzz, 2 Grunt</t>
+  </si>
+  <si>
+    <t>1 Growl, 1 Buzz</t>
+  </si>
+  <si>
+    <t>Unknown call</t>
+  </si>
+  <si>
+    <t>Kat says it sounds like a humpback whale and a seal mixed together</t>
   </si>
 </sst>
 </file>
@@ -818,8 +842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78CE4D7F-8176-4A37-B760-708B3AF47518}">
   <dimension ref="A1:L601"/>
   <sheetViews>
-    <sheetView topLeftCell="A216" workbookViewId="0">
-      <selection activeCell="E242" sqref="E242"/>
+    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
+      <selection activeCell="E245" sqref="E245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8199,7 +8223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A241">
         <v>32</v>
       </c>
@@ -8229,7 +8253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A242">
         <v>32</v>
       </c>
@@ -8242,12 +8266,27 @@
       <c r="D242" s="4">
         <v>0</v>
       </c>
+      <c r="E242">
+        <v>0</v>
+      </c>
+      <c r="F242">
+        <v>0</v>
+      </c>
+      <c r="G242">
+        <v>0</v>
+      </c>
       <c r="H242">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I242">
+        <v>1</v>
+      </c>
+      <c r="J242" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="243" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A243">
         <v>32</v>
       </c>
@@ -8260,12 +8299,24 @@
       <c r="D243" s="4">
         <v>1.1574074074074073E-4</v>
       </c>
+      <c r="E243">
+        <v>0</v>
+      </c>
+      <c r="F243">
+        <v>0</v>
+      </c>
+      <c r="G243">
+        <v>0</v>
+      </c>
       <c r="H243">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A244">
         <v>32</v>
       </c>
@@ -8278,12 +8329,24 @@
       <c r="D244" s="4">
         <v>2.31481481481481E-4</v>
       </c>
+      <c r="E244">
+        <v>2</v>
+      </c>
+      <c r="F244">
+        <v>1</v>
+      </c>
+      <c r="G244">
+        <v>4</v>
+      </c>
       <c r="H244">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+      <c r="I244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A245">
         <v>32</v>
       </c>
@@ -8301,7 +8364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A246">
         <v>32</v>
       </c>
@@ -8319,7 +8382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A247">
         <v>32</v>
       </c>
@@ -8337,7 +8400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A248">
         <v>32</v>
       </c>
@@ -8355,7 +8418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A249">
         <v>32</v>
       </c>
@@ -8373,7 +8436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A250">
         <v>32</v>
       </c>
@@ -8391,7 +8454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A251">
         <v>32</v>
       </c>
@@ -8409,7 +8472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A252">
         <v>32</v>
       </c>
@@ -8427,7 +8490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A253">
         <v>32</v>
       </c>
@@ -8445,7 +8508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A254">
         <v>32</v>
       </c>
@@ -8463,7 +8526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A255">
         <v>32</v>
       </c>
@@ -8481,7 +8544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A256">
         <v>32</v>
       </c>
@@ -28549,8 +28612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B35DD0A5-F8E0-427C-97F1-F3D88B7B5009}">
   <dimension ref="A1:L601"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="E182" sqref="E182"/>
+    <sheetView topLeftCell="A216" workbookViewId="0">
+      <selection activeCell="E242" sqref="E242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -33921,7 +33984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>8</v>
       </c>
@@ -33951,7 +34014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>8</v>
       </c>
@@ -33981,7 +34044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A179">
         <v>8</v>
       </c>
@@ -34011,7 +34074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A180">
         <v>8</v>
       </c>
@@ -34041,7 +34104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A181">
         <v>8</v>
       </c>
@@ -34070,8 +34133,11 @@
       <c r="I181">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="L181" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A182">
         <v>8</v>
       </c>
@@ -34084,12 +34150,24 @@
       <c r="D182" s="4">
         <v>6.9444444444444397E-3</v>
       </c>
+      <c r="E182">
+        <v>2</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
       <c r="H182">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A183">
         <v>8</v>
       </c>
@@ -34102,12 +34180,24 @@
       <c r="D183" s="4">
         <v>7.0601851851851798E-3</v>
       </c>
+      <c r="E183">
+        <v>1</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+      <c r="G183">
+        <v>0</v>
+      </c>
       <c r="H183">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A184">
         <v>8</v>
       </c>
@@ -34120,12 +34210,24 @@
       <c r="D184" s="4">
         <v>7.1759259259259302E-3</v>
       </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+      <c r="G184">
+        <v>0</v>
+      </c>
       <c r="H184">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A185">
         <v>8</v>
       </c>
@@ -34138,12 +34240,24 @@
       <c r="D185" s="4">
         <v>7.2916666666666703E-3</v>
       </c>
+      <c r="E185">
+        <v>1</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+      <c r="G185">
+        <v>0</v>
+      </c>
       <c r="H185">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A186">
         <v>8</v>
       </c>
@@ -34156,12 +34270,24 @@
       <c r="D186" s="4">
         <v>7.4074074074074103E-3</v>
       </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
       <c r="H186">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A187">
         <v>8</v>
       </c>
@@ -34174,12 +34300,24 @@
       <c r="D187" s="4">
         <v>7.5231481481481503E-3</v>
       </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
       <c r="H187">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A188">
         <v>8</v>
       </c>
@@ -34192,12 +34330,24 @@
       <c r="D188" s="4">
         <v>7.6388888888888904E-3</v>
       </c>
+      <c r="E188">
+        <v>1</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
       <c r="H188">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A189">
         <v>8</v>
       </c>
@@ -34210,12 +34360,24 @@
       <c r="D189" s="4">
         <v>7.7546296296296304E-3</v>
       </c>
+      <c r="E189">
+        <v>0</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+      <c r="G189">
+        <v>0</v>
+      </c>
       <c r="H189">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A190">
         <v>8</v>
       </c>
@@ -34228,12 +34390,24 @@
       <c r="D190" s="4">
         <v>7.8703703703703696E-3</v>
       </c>
+      <c r="E190">
+        <v>0</v>
+      </c>
+      <c r="F190">
+        <v>1</v>
+      </c>
+      <c r="G190">
+        <v>4</v>
+      </c>
       <c r="H190">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.45">
+        <f>E190+G190</f>
+        <v>4</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A191">
         <v>8</v>
       </c>
@@ -34246,12 +34420,24 @@
       <c r="D191" s="4">
         <v>7.9861111111111105E-3</v>
       </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+      <c r="F191">
+        <v>0</v>
+      </c>
+      <c r="G191">
+        <v>0</v>
+      </c>
       <c r="H191">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.45">
+        <f>E191+G191</f>
+        <v>0</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A192">
         <v>8</v>
       </c>
@@ -34264,12 +34450,24 @@
       <c r="D192" s="4">
         <v>8.1018518518518497E-3</v>
       </c>
+      <c r="E192">
+        <v>1</v>
+      </c>
+      <c r="F192">
+        <v>1</v>
+      </c>
+      <c r="G192">
+        <v>4</v>
+      </c>
       <c r="H192">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.45">
+        <f>E192+G192</f>
+        <v>5</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A193">
         <v>8</v>
       </c>
@@ -34282,12 +34480,27 @@
       <c r="D193" s="4">
         <v>8.2175925925925906E-3</v>
       </c>
+      <c r="E193">
+        <v>0</v>
+      </c>
+      <c r="F193">
+        <v>0</v>
+      </c>
+      <c r="G193">
+        <v>0</v>
+      </c>
       <c r="H193">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I193">
+        <v>0</v>
+      </c>
+      <c r="K193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A194">
         <v>8</v>
       </c>
@@ -34300,12 +34513,24 @@
       <c r="D194" s="4">
         <v>8.3333333333333297E-3</v>
       </c>
+      <c r="E194">
+        <v>0</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+      <c r="G194">
+        <v>0</v>
+      </c>
       <c r="H194">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A195">
         <v>8</v>
       </c>
@@ -34318,12 +34543,24 @@
       <c r="D195" s="4">
         <v>8.4490740740740707E-3</v>
       </c>
+      <c r="E195">
+        <v>6</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+      <c r="G195">
+        <v>0</v>
+      </c>
       <c r="H195">
         <f t="shared" ref="H195:H258" si="3">E195+G195</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A196">
         <v>8</v>
       </c>
@@ -34336,12 +34573,24 @@
       <c r="D196" s="4">
         <v>8.5648148148148098E-3</v>
       </c>
+      <c r="E196">
+        <v>0</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+      <c r="G196">
+        <v>0</v>
+      </c>
       <c r="H196">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A197">
         <v>8</v>
       </c>
@@ -34354,12 +34603,24 @@
       <c r="D197" s="4">
         <v>8.6805555555555507E-3</v>
       </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+      <c r="G197">
+        <v>0</v>
+      </c>
       <c r="H197">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A198">
         <v>8</v>
       </c>
@@ -34372,12 +34633,24 @@
       <c r="D198" s="4">
         <v>8.7962962962963003E-3</v>
       </c>
+      <c r="E198">
+        <v>3</v>
+      </c>
+      <c r="F198">
+        <v>1</v>
+      </c>
+      <c r="G198">
+        <v>5</v>
+      </c>
       <c r="H198">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.45">
+        <v>8</v>
+      </c>
+      <c r="I198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A199">
         <v>8</v>
       </c>
@@ -34390,12 +34663,27 @@
       <c r="D199" s="4">
         <v>8.9120370370370395E-3</v>
       </c>
+      <c r="E199">
+        <v>1</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+      <c r="G199">
+        <v>0</v>
+      </c>
       <c r="H199">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+      <c r="K199">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A200">
         <v>8</v>
       </c>
@@ -34408,12 +34696,24 @@
       <c r="D200" s="4">
         <v>9.0277777777777804E-3</v>
       </c>
+      <c r="E200">
+        <v>0</v>
+      </c>
+      <c r="F200">
+        <v>0</v>
+      </c>
+      <c r="G200">
+        <v>0</v>
+      </c>
       <c r="H200">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A201">
         <v>8</v>
       </c>
@@ -34426,12 +34726,27 @@
       <c r="D201" s="4">
         <v>9.1435185185185196E-3</v>
       </c>
+      <c r="E201">
+        <v>2</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
+      <c r="G201">
+        <v>0</v>
+      </c>
       <c r="H201">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+      <c r="I201">
+        <v>0</v>
+      </c>
+      <c r="K201">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A202">
         <v>8</v>
       </c>
@@ -34444,12 +34759,27 @@
       <c r="D202" s="4">
         <v>9.2592592592592605E-3</v>
       </c>
+      <c r="E202">
+        <v>0</v>
+      </c>
+      <c r="F202">
+        <v>0</v>
+      </c>
+      <c r="G202">
+        <v>0</v>
+      </c>
       <c r="H202">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I202">
+        <v>0</v>
+      </c>
+      <c r="K202">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A203">
         <v>8</v>
       </c>
@@ -34462,12 +34792,24 @@
       <c r="D203" s="4">
         <v>9.3749999999999997E-3</v>
       </c>
+      <c r="E203">
+        <v>1</v>
+      </c>
+      <c r="F203">
+        <v>0</v>
+      </c>
+      <c r="G203">
+        <v>0</v>
+      </c>
       <c r="H203">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="I203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A204">
         <v>8</v>
       </c>
@@ -34480,12 +34822,24 @@
       <c r="D204" s="4">
         <v>9.4907407407407406E-3</v>
       </c>
+      <c r="E204">
+        <v>1</v>
+      </c>
+      <c r="F204">
+        <v>0</v>
+      </c>
+      <c r="G204">
+        <v>0</v>
+      </c>
       <c r="H204">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="I204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A205">
         <v>8</v>
       </c>
@@ -34498,12 +34852,30 @@
       <c r="D205" s="4">
         <v>9.6064814814814797E-3</v>
       </c>
+      <c r="E205">
+        <v>0</v>
+      </c>
+      <c r="F205">
+        <v>0</v>
+      </c>
+      <c r="G205">
+        <v>0</v>
+      </c>
       <c r="H205">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I205">
+        <v>1</v>
+      </c>
+      <c r="J205" t="s">
+        <v>50</v>
+      </c>
+      <c r="K205">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A206">
         <v>8</v>
       </c>
@@ -34516,12 +34888,27 @@
       <c r="D206" s="4">
         <v>9.7222222222222206E-3</v>
       </c>
+      <c r="E206">
+        <v>2</v>
+      </c>
+      <c r="F206">
+        <v>0</v>
+      </c>
+      <c r="G206">
+        <v>0</v>
+      </c>
       <c r="H206">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+      <c r="I206">
+        <v>2</v>
+      </c>
+      <c r="J206" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A207">
         <v>8</v>
       </c>
@@ -34534,12 +34921,27 @@
       <c r="D207" s="4">
         <v>9.8379629629629598E-3</v>
       </c>
+      <c r="E207">
+        <v>2</v>
+      </c>
+      <c r="F207">
+        <v>0</v>
+      </c>
+      <c r="G207">
+        <v>0</v>
+      </c>
       <c r="H207">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+      <c r="I207">
+        <v>0</v>
+      </c>
+      <c r="K207">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A208">
         <v>8</v>
       </c>
@@ -34552,12 +34954,24 @@
       <c r="D208" s="4">
         <v>9.9537037037037007E-3</v>
       </c>
+      <c r="E208">
+        <v>0</v>
+      </c>
+      <c r="F208">
+        <v>0</v>
+      </c>
+      <c r="G208">
+        <v>0</v>
+      </c>
       <c r="H208">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A209">
         <v>8</v>
       </c>
@@ -34570,12 +34984,24 @@
       <c r="D209" s="4">
         <v>1.00694444444444E-2</v>
       </c>
+      <c r="E209">
+        <v>1</v>
+      </c>
+      <c r="F209">
+        <v>0</v>
+      </c>
+      <c r="G209">
+        <v>0</v>
+      </c>
       <c r="H209">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A210">
         <v>8</v>
       </c>
@@ -34588,12 +35014,24 @@
       <c r="D210" s="4">
         <v>1.01851851851852E-2</v>
       </c>
+      <c r="E210">
+        <v>0</v>
+      </c>
+      <c r="F210">
+        <v>0</v>
+      </c>
+      <c r="G210">
+        <v>0</v>
+      </c>
       <c r="H210">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A211">
         <v>8</v>
       </c>
@@ -34606,12 +35044,24 @@
       <c r="D211" s="4">
         <v>1.0300925925925899E-2</v>
       </c>
+      <c r="E211">
+        <v>0</v>
+      </c>
+      <c r="F211">
+        <v>0</v>
+      </c>
+      <c r="G211">
+        <v>0</v>
+      </c>
       <c r="H211">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A212">
         <v>8</v>
       </c>
@@ -34624,12 +35074,24 @@
       <c r="D212" s="4">
         <v>1.0416666666666701E-2</v>
       </c>
+      <c r="E212">
+        <v>0</v>
+      </c>
+      <c r="F212">
+        <v>0</v>
+      </c>
+      <c r="G212">
+        <v>0</v>
+      </c>
       <c r="H212">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A213">
         <v>8</v>
       </c>
@@ -34642,12 +35104,24 @@
       <c r="D213" s="4">
         <v>1.05324074074074E-2</v>
       </c>
+      <c r="E213">
+        <v>0</v>
+      </c>
+      <c r="F213">
+        <v>0</v>
+      </c>
+      <c r="G213">
+        <v>0</v>
+      </c>
       <c r="H213">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A214">
         <v>8</v>
       </c>
@@ -34660,12 +35134,24 @@
       <c r="D214" s="4">
         <v>1.0648148148148099E-2</v>
       </c>
+      <c r="E214">
+        <v>0</v>
+      </c>
+      <c r="F214">
+        <v>0</v>
+      </c>
+      <c r="G214">
+        <v>0</v>
+      </c>
       <c r="H214">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A215">
         <v>8</v>
       </c>
@@ -34678,12 +35164,27 @@
       <c r="D215" s="4">
         <v>1.0763888888888899E-2</v>
       </c>
+      <c r="E215">
+        <v>1</v>
+      </c>
+      <c r="F215">
+        <v>0</v>
+      </c>
+      <c r="G215">
+        <v>0</v>
+      </c>
       <c r="H215">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="I215">
+        <v>2</v>
+      </c>
+      <c r="J215" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A216">
         <v>8</v>
       </c>
@@ -34696,12 +35197,24 @@
       <c r="D216" s="4">
         <v>1.08796296296296E-2</v>
       </c>
+      <c r="E216">
+        <v>0</v>
+      </c>
+      <c r="F216">
+        <v>0</v>
+      </c>
+      <c r="G216">
+        <v>0</v>
+      </c>
       <c r="H216">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A217">
         <v>8</v>
       </c>
@@ -34714,12 +35227,24 @@
       <c r="D217" s="4">
         <v>1.09953703703704E-2</v>
       </c>
+      <c r="E217">
+        <v>0</v>
+      </c>
+      <c r="F217">
+        <v>2</v>
+      </c>
+      <c r="G217">
+        <v>9</v>
+      </c>
       <c r="H217">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+      <c r="I217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A218">
         <v>8</v>
       </c>
@@ -34732,12 +35257,24 @@
       <c r="D218" s="4">
         <v>1.1111111111111099E-2</v>
       </c>
+      <c r="E218">
+        <v>0</v>
+      </c>
+      <c r="F218">
+        <v>0</v>
+      </c>
+      <c r="G218">
+        <v>0</v>
+      </c>
       <c r="H218">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A219">
         <v>8</v>
       </c>
@@ -34750,12 +35287,24 @@
       <c r="D219" s="4">
         <v>1.1226851851851899E-2</v>
       </c>
+      <c r="E219">
+        <v>0</v>
+      </c>
+      <c r="F219">
+        <v>0</v>
+      </c>
+      <c r="G219">
+        <v>0</v>
+      </c>
       <c r="H219">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A220">
         <v>8</v>
       </c>
@@ -34768,12 +35317,24 @@
       <c r="D220" s="4">
         <v>1.13425925925926E-2</v>
       </c>
+      <c r="E220">
+        <v>0</v>
+      </c>
+      <c r="F220">
+        <v>1</v>
+      </c>
+      <c r="G220">
+        <v>12</v>
+      </c>
       <c r="H220">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.45">
+        <v>12</v>
+      </c>
+      <c r="I220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A221">
         <v>8</v>
       </c>
@@ -34786,12 +35347,24 @@
       <c r="D221" s="4">
         <v>1.14583333333333E-2</v>
       </c>
+      <c r="E221">
+        <v>0</v>
+      </c>
+      <c r="F221">
+        <v>0</v>
+      </c>
+      <c r="G221">
+        <v>0</v>
+      </c>
       <c r="H221">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A222">
         <v>8</v>
       </c>
@@ -34804,12 +35377,24 @@
       <c r="D222" s="4">
         <v>1.1574074074074099E-2</v>
       </c>
+      <c r="E222">
+        <v>1</v>
+      </c>
+      <c r="F222">
+        <v>0</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
       <c r="H222">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A223">
         <v>8</v>
       </c>
@@ -34822,12 +35407,24 @@
       <c r="D223" s="4">
         <v>1.16898148148148E-2</v>
       </c>
+      <c r="E223">
+        <v>1</v>
+      </c>
+      <c r="F223">
+        <v>0</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
       <c r="H223">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A224">
         <v>8</v>
       </c>
@@ -34840,12 +35437,24 @@
       <c r="D224" s="4">
         <v>1.18055555555556E-2</v>
       </c>
+      <c r="E224">
+        <v>0</v>
+      </c>
+      <c r="F224">
+        <v>0</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
       <c r="H224">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A225">
         <v>8</v>
       </c>
@@ -34858,12 +35467,24 @@
       <c r="D225" s="4">
         <v>1.19212962962963E-2</v>
       </c>
+      <c r="E225">
+        <v>0</v>
+      </c>
+      <c r="F225">
+        <v>1</v>
+      </c>
+      <c r="G225">
+        <v>8</v>
+      </c>
       <c r="H225">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.45">
+        <v>8</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A226">
         <v>8</v>
       </c>
@@ -34876,12 +35497,27 @@
       <c r="D226" s="4">
         <v>1.2037037037037001E-2</v>
       </c>
+      <c r="E226">
+        <v>0</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
       <c r="H226">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I226">
+        <v>1</v>
+      </c>
+      <c r="J226" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A227">
         <v>8</v>
       </c>
@@ -34894,12 +35530,24 @@
       <c r="D227" s="4">
         <v>1.2152777777777801E-2</v>
       </c>
+      <c r="E227">
+        <v>0</v>
+      </c>
+      <c r="F227">
+        <v>1</v>
+      </c>
+      <c r="G227">
+        <v>5</v>
+      </c>
       <c r="H227">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A228">
         <v>8</v>
       </c>
@@ -34912,12 +35560,24 @@
       <c r="D228" s="4">
         <v>1.22685185185185E-2</v>
       </c>
+      <c r="E228">
+        <v>0</v>
+      </c>
+      <c r="F228">
+        <v>0</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
       <c r="H228">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A229">
         <v>8</v>
       </c>
@@ -34930,12 +35590,24 @@
       <c r="D229" s="4">
         <v>1.23842592592593E-2</v>
       </c>
+      <c r="E229">
+        <v>0</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
       <c r="H229">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A230">
         <v>8</v>
       </c>
@@ -34948,12 +35620,24 @@
       <c r="D230" s="4">
         <v>1.2500000000000001E-2</v>
       </c>
+      <c r="E230">
+        <v>1</v>
+      </c>
+      <c r="F230">
+        <v>0</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
       <c r="H230">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A231">
         <v>8</v>
       </c>
@@ -34966,12 +35650,24 @@
       <c r="D231" s="4">
         <v>1.26157407407407E-2</v>
       </c>
+      <c r="E231">
+        <v>1</v>
+      </c>
+      <c r="F231">
+        <v>0</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
       <c r="H231">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A232">
         <v>8</v>
       </c>
@@ -34984,12 +35680,24 @@
       <c r="D232" s="4">
         <v>1.27314814814815E-2</v>
       </c>
+      <c r="E232">
+        <v>0</v>
+      </c>
+      <c r="F232">
+        <v>0</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
       <c r="H232">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A233">
         <v>8</v>
       </c>
@@ -35002,12 +35710,24 @@
       <c r="D233" s="4">
         <v>1.2847222222222201E-2</v>
       </c>
+      <c r="E233">
+        <v>0</v>
+      </c>
+      <c r="F233">
+        <v>0</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
       <c r="H233">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A234">
         <v>8</v>
       </c>
@@ -35020,12 +35740,24 @@
       <c r="D234" s="4">
         <v>1.2962962962963001E-2</v>
       </c>
+      <c r="E234">
+        <v>0</v>
+      </c>
+      <c r="F234">
+        <v>0</v>
+      </c>
+      <c r="G234">
+        <v>0</v>
+      </c>
       <c r="H234">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A235">
         <v>8</v>
       </c>
@@ -35038,12 +35770,24 @@
       <c r="D235" s="4">
         <v>1.30787037037037E-2</v>
       </c>
+      <c r="E235">
+        <v>0</v>
+      </c>
+      <c r="F235">
+        <v>0</v>
+      </c>
+      <c r="G235">
+        <v>0</v>
+      </c>
       <c r="H235">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A236">
         <v>8</v>
       </c>
@@ -35056,12 +35800,24 @@
       <c r="D236" s="4">
         <v>1.3194444444444399E-2</v>
       </c>
+      <c r="E236">
+        <v>0</v>
+      </c>
+      <c r="F236">
+        <v>0</v>
+      </c>
+      <c r="G236">
+        <v>0</v>
+      </c>
       <c r="H236">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A237">
         <v>8</v>
       </c>
@@ -35074,12 +35830,24 @@
       <c r="D237" s="4">
         <v>1.3310185185185199E-2</v>
       </c>
+      <c r="E237">
+        <v>3</v>
+      </c>
+      <c r="F237">
+        <v>0</v>
+      </c>
+      <c r="G237">
+        <v>0</v>
+      </c>
       <c r="H237">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+      <c r="I237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A238">
         <v>8</v>
       </c>
@@ -35092,12 +35860,24 @@
       <c r="D238" s="4">
         <v>1.34259259259259E-2</v>
       </c>
+      <c r="E238">
+        <v>0</v>
+      </c>
+      <c r="F238">
+        <v>0</v>
+      </c>
+      <c r="G238">
+        <v>0</v>
+      </c>
       <c r="H238">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A239">
         <v>8</v>
       </c>
@@ -35110,12 +35890,24 @@
       <c r="D239" s="4">
         <v>1.35416666666667E-2</v>
       </c>
+      <c r="E239">
+        <v>0</v>
+      </c>
+      <c r="F239">
+        <v>0</v>
+      </c>
+      <c r="G239">
+        <v>0</v>
+      </c>
       <c r="H239">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A240">
         <v>8</v>
       </c>
@@ -35128,12 +35920,24 @@
       <c r="D240" s="4">
         <v>1.3657407407407399E-2</v>
       </c>
+      <c r="E240">
+        <v>2</v>
+      </c>
+      <c r="F240">
+        <v>0</v>
+      </c>
+      <c r="G240">
+        <v>0</v>
+      </c>
       <c r="H240">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+      <c r="I240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A241">
         <v>8</v>
       </c>
@@ -35146,12 +35950,24 @@
       <c r="D241" s="4">
         <v>1.37731481481481E-2</v>
       </c>
+      <c r="E241">
+        <v>0</v>
+      </c>
+      <c r="F241">
+        <v>1</v>
+      </c>
+      <c r="G241">
+        <v>9</v>
+      </c>
       <c r="H241">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+      <c r="I241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A242">
         <v>8</v>
       </c>
@@ -35169,7 +35985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A243">
         <v>8</v>
       </c>
@@ -35187,7 +36003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A244">
         <v>8</v>
       </c>
@@ -35205,7 +36021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A245">
         <v>8</v>
       </c>
@@ -35223,7 +36039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A246">
         <v>8</v>
       </c>
@@ -35241,7 +36057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A247">
         <v>8</v>
       </c>
@@ -35259,7 +36075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A248">
         <v>8</v>
       </c>
@@ -35277,7 +36093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A249">
         <v>8</v>
       </c>
@@ -35295,7 +36111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A250">
         <v>8</v>
       </c>
@@ -35313,7 +36129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A251">
         <v>8</v>
       </c>
@@ -35331,7 +36147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A252">
         <v>8</v>
       </c>
@@ -35349,7 +36165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A253">
         <v>8</v>
       </c>
@@ -35367,7 +36183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A254">
         <v>8</v>
       </c>
@@ -35385,7 +36201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A255">
         <v>8</v>
       </c>
@@ -35403,7 +36219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A256">
         <v>8</v>
       </c>
@@ -41641,8 +42457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D847199-6E7C-498C-B088-4190443BC1BC}">
   <dimension ref="A1:L601"/>
   <sheetViews>
-    <sheetView topLeftCell="C96" workbookViewId="0">
-      <selection activeCell="E122" sqref="E122"/>
+    <sheetView topLeftCell="C222" workbookViewId="0">
+      <selection activeCell="L242" sqref="L242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -45469,8 +46285,20 @@
       <c r="D122" s="4">
         <v>0</v>
       </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>3</v>
+      </c>
+      <c r="G122">
+        <v>11</v>
+      </c>
       <c r="H122">
         <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="I122">
         <v>0</v>
       </c>
     </row>
@@ -45487,8 +46315,20 @@
       <c r="D123" s="4">
         <v>1.1574074074074073E-4</v>
       </c>
+      <c r="E123">
+        <v>1</v>
+      </c>
+      <c r="F123">
+        <v>4</v>
+      </c>
+      <c r="G123">
+        <v>21</v>
+      </c>
       <c r="H123">
         <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="I123">
         <v>0</v>
       </c>
     </row>
@@ -45505,8 +46345,20 @@
       <c r="D124" s="4">
         <v>2.31481481481481E-4</v>
       </c>
+      <c r="E124">
+        <v>2</v>
+      </c>
+      <c r="F124">
+        <v>3</v>
+      </c>
+      <c r="G124">
+        <v>16</v>
+      </c>
       <c r="H124">
         <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="I124">
         <v>0</v>
       </c>
     </row>
@@ -45523,8 +46375,20 @@
       <c r="D125" s="4">
         <v>3.4722222222222202E-4</v>
       </c>
+      <c r="E125">
+        <v>1</v>
+      </c>
+      <c r="F125">
+        <v>1</v>
+      </c>
+      <c r="G125">
+        <v>6</v>
+      </c>
       <c r="H125">
         <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="I125">
         <v>0</v>
       </c>
     </row>
@@ -45541,8 +46405,20 @@
       <c r="D126" s="4">
         <v>4.6296296296296298E-4</v>
       </c>
+      <c r="E126">
+        <v>2</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
       <c r="H126">
         <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="I126">
         <v>0</v>
       </c>
     </row>
@@ -45559,8 +46435,20 @@
       <c r="D127" s="4">
         <v>5.78703703703704E-4</v>
       </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
       <c r="H127">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I127">
         <v>0</v>
       </c>
     </row>
@@ -45577,12 +46465,24 @@
       <c r="D128" s="4">
         <v>6.9444444444444404E-4</v>
       </c>
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
+        <v>1</v>
+      </c>
+      <c r="G128">
+        <v>4</v>
+      </c>
       <c r="H128">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>5</v>
       </c>
@@ -45595,12 +46495,24 @@
       <c r="D129" s="4">
         <v>8.1018518518518505E-4</v>
       </c>
+      <c r="E129">
+        <v>1</v>
+      </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
+      <c r="G129">
+        <v>4</v>
+      </c>
       <c r="H129">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>5</v>
       </c>
@@ -45613,12 +46525,24 @@
       <c r="D130" s="4">
         <v>9.2592592592592596E-4</v>
       </c>
+      <c r="E130">
+        <v>0</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
       <c r="H130">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>5</v>
       </c>
@@ -45631,12 +46555,24 @@
       <c r="D131" s="4">
         <v>1.0416666666666699E-3</v>
       </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
       <c r="H131">
         <f t="shared" ref="H131:H194" si="2">E131+G131</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>5</v>
       </c>
@@ -45649,12 +46585,27 @@
       <c r="D132" s="4">
         <v>1.1574074074074099E-3</v>
       </c>
+      <c r="E132">
+        <v>0</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
       <c r="H132">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>5</v>
       </c>
@@ -45667,12 +46618,24 @@
       <c r="D133" s="4">
         <v>1.27314814814815E-3</v>
       </c>
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
       <c r="H133">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>5</v>
       </c>
@@ -45685,12 +46648,24 @@
       <c r="D134" s="4">
         <v>1.38888888888889E-3</v>
       </c>
+      <c r="E134">
+        <v>1</v>
+      </c>
+      <c r="F134">
+        <v>1</v>
+      </c>
+      <c r="G134">
+        <v>6</v>
+      </c>
       <c r="H134">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>5</v>
       </c>
@@ -45703,12 +46678,27 @@
       <c r="D135" s="4">
         <v>1.5046296296296301E-3</v>
       </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>3</v>
+      </c>
+      <c r="G135">
+        <v>12</v>
+      </c>
       <c r="H135">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.45">
+        <v>12</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="J135" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>5</v>
       </c>
@@ -45721,12 +46711,24 @@
       <c r="D136" s="4">
         <v>1.6203703703703701E-3</v>
       </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
+        <v>1</v>
+      </c>
+      <c r="G136">
+        <v>4</v>
+      </c>
       <c r="H136">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>5</v>
       </c>
@@ -45739,12 +46741,27 @@
       <c r="D137" s="4">
         <v>1.7361111111111099E-3</v>
       </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>1</v>
+      </c>
+      <c r="G137">
+        <v>6</v>
+      </c>
       <c r="H137">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+      <c r="I137">
+        <v>1</v>
+      </c>
+      <c r="J137" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>5</v>
       </c>
@@ -45757,12 +46774,24 @@
       <c r="D138" s="4">
         <v>1.85185185185185E-3</v>
       </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>1</v>
+      </c>
+      <c r="G138">
+        <v>4</v>
+      </c>
       <c r="H138">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>5</v>
       </c>
@@ -45775,12 +46804,27 @@
       <c r="D139" s="4">
         <v>1.9675925925925898E-3</v>
       </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>4</v>
+      </c>
+      <c r="G139">
+        <v>13</v>
+      </c>
       <c r="H139">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.45">
+        <v>13</v>
+      </c>
+      <c r="I139">
+        <v>2</v>
+      </c>
+      <c r="J139" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>5</v>
       </c>
@@ -45793,12 +46837,24 @@
       <c r="D140" s="4">
         <v>2.0833333333333298E-3</v>
       </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>2</v>
+      </c>
+      <c r="G140">
+        <v>6</v>
+      </c>
       <c r="H140">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>5</v>
       </c>
@@ -45811,12 +46867,24 @@
       <c r="D141" s="4">
         <v>2.1990740740740699E-3</v>
       </c>
+      <c r="E141">
+        <v>0</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
       <c r="H141">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>5</v>
       </c>
@@ -45829,12 +46897,24 @@
       <c r="D142" s="4">
         <v>2.3148148148148099E-3</v>
       </c>
+      <c r="E142">
+        <v>3</v>
+      </c>
+      <c r="F142">
+        <v>3</v>
+      </c>
+      <c r="G142">
+        <v>6</v>
+      </c>
       <c r="H142">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>5</v>
       </c>
@@ -45847,12 +46927,24 @@
       <c r="D143" s="4">
         <v>2.4305555555555599E-3</v>
       </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>1</v>
+      </c>
+      <c r="G143">
+        <v>31</v>
+      </c>
       <c r="H143">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.45">
+        <v>31</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>5</v>
       </c>
@@ -45865,12 +46957,24 @@
       <c r="D144" s="4">
         <v>2.5462962962963E-3</v>
       </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>1</v>
+      </c>
+      <c r="G144">
+        <v>3</v>
+      </c>
       <c r="H144">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>5</v>
       </c>
@@ -45883,12 +46987,27 @@
       <c r="D145" s="4">
         <v>2.66203703703704E-3</v>
       </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
       <c r="H145">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I145">
+        <v>1</v>
+      </c>
+      <c r="J145" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>5</v>
       </c>
@@ -45901,12 +47020,24 @@
       <c r="D146" s="4">
         <v>2.7777777777777801E-3</v>
       </c>
+      <c r="E146">
+        <v>4</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
       <c r="H146">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>5</v>
       </c>
@@ -45919,12 +47050,24 @@
       <c r="D147" s="4">
         <v>2.8935185185185201E-3</v>
       </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>1</v>
+      </c>
+      <c r="G147">
+        <v>4</v>
+      </c>
       <c r="H147">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>5</v>
       </c>
@@ -45937,12 +47080,24 @@
       <c r="D148" s="4">
         <v>3.0092592592592601E-3</v>
       </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
       <c r="H148">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>5</v>
       </c>
@@ -45955,12 +47110,24 @@
       <c r="D149" s="4">
         <v>3.1250000000000002E-3</v>
       </c>
+      <c r="E149">
+        <v>1</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
       <c r="H149">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>5</v>
       </c>
@@ -45973,12 +47140,24 @@
       <c r="D150" s="4">
         <v>3.2407407407407402E-3</v>
       </c>
+      <c r="E150">
+        <v>2</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
       <c r="H150">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>5</v>
       </c>
@@ -45991,12 +47170,24 @@
       <c r="D151" s="4">
         <v>3.3564814814814798E-3</v>
       </c>
+      <c r="E151">
+        <v>3</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
       <c r="H151">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>5</v>
       </c>
@@ -46009,12 +47200,24 @@
       <c r="D152" s="4">
         <v>3.4722222222222199E-3</v>
       </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
       <c r="H152">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>5</v>
       </c>
@@ -46027,12 +47230,24 @@
       <c r="D153" s="4">
         <v>3.5879629629629599E-3</v>
       </c>
+      <c r="E153">
+        <v>2</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
       <c r="H153">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>5</v>
       </c>
@@ -46045,12 +47260,24 @@
       <c r="D154" s="4">
         <v>3.7037037037036999E-3</v>
       </c>
+      <c r="E154">
+        <v>1</v>
+      </c>
+      <c r="F154">
+        <v>1</v>
+      </c>
+      <c r="G154">
+        <v>4</v>
+      </c>
       <c r="H154">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A155">
         <v>5</v>
       </c>
@@ -46063,12 +47290,24 @@
       <c r="D155" s="4">
         <v>3.81944444444444E-3</v>
       </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
       <c r="H155">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A156">
         <v>5</v>
       </c>
@@ -46081,12 +47320,24 @@
       <c r="D156" s="4">
         <v>3.9351851851851796E-3</v>
       </c>
+      <c r="E156">
+        <v>6</v>
+      </c>
+      <c r="F156">
+        <v>0</v>
+      </c>
+      <c r="G156">
+        <v>0</v>
+      </c>
       <c r="H156">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>5</v>
       </c>
@@ -46099,12 +47350,24 @@
       <c r="D157" s="4">
         <v>4.05092592592593E-3</v>
       </c>
+      <c r="E157">
+        <v>3</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
       <c r="H157">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>5</v>
       </c>
@@ -46117,12 +47380,24 @@
       <c r="D158" s="4">
         <v>4.1666666666666701E-3</v>
       </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
       <c r="H158">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A159">
         <v>5</v>
       </c>
@@ -46135,12 +47410,24 @@
       <c r="D159" s="4">
         <v>4.2824074074074101E-3</v>
       </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
       <c r="H159">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A160">
         <v>5</v>
       </c>
@@ -46153,12 +47440,24 @@
       <c r="D160" s="4">
         <v>4.3981481481481502E-3</v>
       </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
       <c r="H160">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>5</v>
       </c>
@@ -46171,12 +47470,24 @@
       <c r="D161" s="4">
         <v>4.5138888888888902E-3</v>
       </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+      <c r="F161">
+        <v>1</v>
+      </c>
+      <c r="G161">
+        <v>8</v>
+      </c>
       <c r="H161">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.45">
+        <v>8</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>5</v>
       </c>
@@ -46189,12 +47500,24 @@
       <c r="D162" s="4">
         <v>4.6296296296296302E-3</v>
       </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
       <c r="H162">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>5</v>
       </c>
@@ -46207,12 +47530,24 @@
       <c r="D163" s="4">
         <v>4.7453703703703703E-3</v>
       </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
       <c r="H163">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A164">
         <v>5</v>
       </c>
@@ -46225,12 +47560,24 @@
       <c r="D164" s="4">
         <v>4.8611111111111103E-3</v>
       </c>
+      <c r="E164">
+        <v>0</v>
+      </c>
+      <c r="F164">
+        <v>0</v>
+      </c>
+      <c r="G164">
+        <v>0</v>
+      </c>
       <c r="H164">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A165">
         <v>5</v>
       </c>
@@ -46243,12 +47590,24 @@
       <c r="D165" s="4">
         <v>4.9768518518518504E-3</v>
       </c>
+      <c r="E165">
+        <v>9</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
       <c r="H165">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A166">
         <v>5</v>
       </c>
@@ -46261,12 +47620,24 @@
       <c r="D166" s="4">
         <v>5.0925925925925904E-3</v>
       </c>
+      <c r="E166">
+        <v>2</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
       <c r="H166">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>5</v>
       </c>
@@ -46279,12 +47650,24 @@
       <c r="D167" s="4">
         <v>5.2083333333333296E-3</v>
       </c>
+      <c r="E167">
+        <v>5</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
       <c r="H167">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>5</v>
       </c>
@@ -46297,12 +47680,24 @@
       <c r="D168" s="4">
         <v>5.3240740740740696E-3</v>
       </c>
+      <c r="E168">
+        <v>1</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
       <c r="H168">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>5</v>
       </c>
@@ -46315,12 +47710,24 @@
       <c r="D169" s="4">
         <v>5.4398148148148097E-3</v>
       </c>
+      <c r="E169">
+        <v>0</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+      <c r="G169">
+        <v>0</v>
+      </c>
       <c r="H169">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A170">
         <v>5</v>
       </c>
@@ -46333,12 +47740,27 @@
       <c r="D170" s="4">
         <v>5.5555555555555497E-3</v>
       </c>
+      <c r="E170">
+        <v>2</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+      <c r="G170">
+        <v>0</v>
+      </c>
       <c r="H170">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+      <c r="I170">
+        <v>1</v>
+      </c>
+      <c r="J170" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A171">
         <v>5</v>
       </c>
@@ -46351,12 +47773,24 @@
       <c r="D171" s="4">
         <v>5.6712962962963001E-3</v>
       </c>
+      <c r="E171">
+        <v>1</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
       <c r="H171">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>5</v>
       </c>
@@ -46369,12 +47803,24 @@
       <c r="D172" s="4">
         <v>5.7870370370370402E-3</v>
       </c>
+      <c r="E172">
+        <v>3</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
       <c r="H172">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>5</v>
       </c>
@@ -46387,12 +47833,24 @@
       <c r="D173" s="4">
         <v>5.9027777777777802E-3</v>
       </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+      <c r="G173">
+        <v>0</v>
+      </c>
       <c r="H173">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A174">
         <v>5</v>
       </c>
@@ -46405,12 +47863,24 @@
       <c r="D174" s="4">
         <v>6.0185185185185203E-3</v>
       </c>
+      <c r="E174">
+        <v>1</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+      <c r="G174">
+        <v>0</v>
+      </c>
       <c r="H174">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A175">
         <v>5</v>
       </c>
@@ -46423,12 +47893,24 @@
       <c r="D175" s="4">
         <v>6.1342592592592603E-3</v>
       </c>
+      <c r="E175">
+        <v>0</v>
+      </c>
+      <c r="F175">
+        <v>2</v>
+      </c>
+      <c r="G175">
+        <v>6</v>
+      </c>
       <c r="H175">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>5</v>
       </c>
@@ -46441,12 +47923,24 @@
       <c r="D176" s="4">
         <v>6.2500000000000003E-3</v>
       </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <v>1</v>
+      </c>
+      <c r="G176">
+        <v>5</v>
+      </c>
       <c r="H176">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>5</v>
       </c>
@@ -46459,12 +47953,24 @@
       <c r="D177" s="4">
         <v>6.3657407407407404E-3</v>
       </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+      <c r="F177">
+        <v>2</v>
+      </c>
+      <c r="G177">
+        <v>12</v>
+      </c>
       <c r="H177">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.45">
+        <v>12</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>5</v>
       </c>
@@ -46477,12 +47983,24 @@
       <c r="D178" s="4">
         <v>6.4814814814814804E-3</v>
       </c>
+      <c r="E178">
+        <v>0</v>
+      </c>
+      <c r="F178">
+        <v>1</v>
+      </c>
+      <c r="G178">
+        <v>8</v>
+      </c>
       <c r="H178">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.45">
+        <v>8</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A179">
         <v>5</v>
       </c>
@@ -46495,12 +48013,24 @@
       <c r="D179" s="4">
         <v>6.5972222222222196E-3</v>
       </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
       <c r="H179">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A180">
         <v>5</v>
       </c>
@@ -46513,12 +48043,24 @@
       <c r="D180" s="4">
         <v>6.7129629629629596E-3</v>
       </c>
+      <c r="E180">
+        <v>0</v>
+      </c>
+      <c r="F180">
+        <v>0</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
       <c r="H180">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A181">
         <v>5</v>
       </c>
@@ -46531,12 +48073,24 @@
       <c r="D181" s="4">
         <v>6.8287037037036997E-3</v>
       </c>
+      <c r="E181">
+        <v>1</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
       <c r="H181">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A182">
         <v>5</v>
       </c>
@@ -46549,12 +48103,24 @@
       <c r="D182" s="4">
         <v>6.9444444444444397E-3</v>
       </c>
+      <c r="E182">
+        <v>1</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
       <c r="H182">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A183">
         <v>5</v>
       </c>
@@ -46567,12 +48133,24 @@
       <c r="D183" s="4">
         <v>7.0601851851851798E-3</v>
       </c>
+      <c r="E183">
+        <v>0</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+      <c r="G183">
+        <v>0</v>
+      </c>
       <c r="H183">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A184">
         <v>5</v>
       </c>
@@ -46585,12 +48163,24 @@
       <c r="D184" s="4">
         <v>7.1759259259259302E-3</v>
       </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+      <c r="F184">
+        <v>1</v>
+      </c>
+      <c r="G184">
+        <v>3</v>
+      </c>
       <c r="H184">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A185">
         <v>5</v>
       </c>
@@ -46603,12 +48193,24 @@
       <c r="D185" s="4">
         <v>7.2916666666666703E-3</v>
       </c>
+      <c r="E185">
+        <v>1</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+      <c r="G185">
+        <v>0</v>
+      </c>
       <c r="H185">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A186">
         <v>5</v>
       </c>
@@ -46621,12 +48223,24 @@
       <c r="D186" s="4">
         <v>7.4074074074074103E-3</v>
       </c>
+      <c r="E186">
+        <v>1</v>
+      </c>
+      <c r="F186">
+        <v>1</v>
+      </c>
+      <c r="G186">
+        <v>2</v>
+      </c>
       <c r="H186">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A187">
         <v>5</v>
       </c>
@@ -46639,12 +48253,24 @@
       <c r="D187" s="4">
         <v>7.5231481481481503E-3</v>
       </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
       <c r="H187">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A188">
         <v>5</v>
       </c>
@@ -46657,12 +48283,24 @@
       <c r="D188" s="4">
         <v>7.6388888888888904E-3</v>
       </c>
+      <c r="E188">
+        <v>2</v>
+      </c>
+      <c r="F188">
+        <v>1</v>
+      </c>
+      <c r="G188">
+        <v>4</v>
+      </c>
       <c r="H188">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A189">
         <v>5</v>
       </c>
@@ -46675,12 +48313,24 @@
       <c r="D189" s="4">
         <v>7.7546296296296304E-3</v>
       </c>
+      <c r="E189">
+        <v>0</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+      <c r="G189">
+        <v>0</v>
+      </c>
       <c r="H189">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A190">
         <v>5</v>
       </c>
@@ -46693,12 +48343,27 @@
       <c r="D190" s="4">
         <v>7.8703703703703696E-3</v>
       </c>
+      <c r="E190">
+        <v>0</v>
+      </c>
+      <c r="F190">
+        <v>1</v>
+      </c>
+      <c r="G190">
+        <v>4</v>
+      </c>
       <c r="H190">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+      <c r="I190">
+        <v>1</v>
+      </c>
+      <c r="J190" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A191">
         <v>5</v>
       </c>
@@ -46711,12 +48376,24 @@
       <c r="D191" s="4">
         <v>7.9861111111111105E-3</v>
       </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+      <c r="F191">
+        <v>1</v>
+      </c>
+      <c r="G191">
+        <v>2</v>
+      </c>
       <c r="H191">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A192">
         <v>5</v>
       </c>
@@ -46729,12 +48406,24 @@
       <c r="D192" s="4">
         <v>8.1018518518518497E-3</v>
       </c>
+      <c r="E192">
+        <v>0</v>
+      </c>
+      <c r="F192">
+        <v>1</v>
+      </c>
+      <c r="G192">
+        <v>2</v>
+      </c>
       <c r="H192">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A193">
         <v>5</v>
       </c>
@@ -46747,12 +48436,24 @@
       <c r="D193" s="4">
         <v>8.2175925925925906E-3</v>
       </c>
+      <c r="E193">
+        <v>0</v>
+      </c>
+      <c r="F193">
+        <v>0</v>
+      </c>
+      <c r="G193">
+        <v>0</v>
+      </c>
       <c r="H193">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A194">
         <v>5</v>
       </c>
@@ -46765,12 +48466,24 @@
       <c r="D194" s="4">
         <v>8.3333333333333297E-3</v>
       </c>
+      <c r="E194">
+        <v>1</v>
+      </c>
+      <c r="F194">
+        <v>1</v>
+      </c>
+      <c r="G194">
+        <v>3</v>
+      </c>
       <c r="H194">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A195">
         <v>5</v>
       </c>
@@ -46783,12 +48496,24 @@
       <c r="D195" s="4">
         <v>8.4490740740740707E-3</v>
       </c>
+      <c r="E195">
+        <v>0</v>
+      </c>
+      <c r="F195">
+        <v>2</v>
+      </c>
+      <c r="G195">
+        <v>4</v>
+      </c>
       <c r="H195">
         <f t="shared" ref="H195:H258" si="3">E195+G195</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+      <c r="I195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A196">
         <v>5</v>
       </c>
@@ -46801,12 +48526,24 @@
       <c r="D196" s="4">
         <v>8.5648148148148098E-3</v>
       </c>
+      <c r="E196">
+        <v>1</v>
+      </c>
+      <c r="F196">
+        <v>1</v>
+      </c>
+      <c r="G196">
+        <v>3</v>
+      </c>
       <c r="H196">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A197">
         <v>5</v>
       </c>
@@ -46819,12 +48556,24 @@
       <c r="D197" s="4">
         <v>8.6805555555555507E-3</v>
       </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+      <c r="G197">
+        <v>0</v>
+      </c>
       <c r="H197">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A198">
         <v>5</v>
       </c>
@@ -46837,12 +48586,24 @@
       <c r="D198" s="4">
         <v>8.7962962962963003E-3</v>
       </c>
+      <c r="E198">
+        <v>0</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
+      <c r="G198">
+        <v>0</v>
+      </c>
       <c r="H198">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A199">
         <v>5</v>
       </c>
@@ -46855,12 +48616,24 @@
       <c r="D199" s="4">
         <v>8.9120370370370395E-3</v>
       </c>
+      <c r="E199">
+        <v>1</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+      <c r="G199">
+        <v>0</v>
+      </c>
       <c r="H199">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="I199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A200">
         <v>5</v>
       </c>
@@ -46873,12 +48646,24 @@
       <c r="D200" s="4">
         <v>9.0277777777777804E-3</v>
       </c>
+      <c r="E200">
+        <v>0</v>
+      </c>
+      <c r="F200">
+        <v>2</v>
+      </c>
+      <c r="G200">
+        <v>8</v>
+      </c>
       <c r="H200">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.45">
+        <v>8</v>
+      </c>
+      <c r="I200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A201">
         <v>5</v>
       </c>
@@ -46891,12 +48676,24 @@
       <c r="D201" s="4">
         <v>9.1435185185185196E-3</v>
       </c>
+      <c r="E201">
+        <v>0</v>
+      </c>
+      <c r="F201">
+        <v>2</v>
+      </c>
+      <c r="G201">
+        <v>6</v>
+      </c>
       <c r="H201">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+      <c r="I201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A202">
         <v>5</v>
       </c>
@@ -46909,12 +48706,24 @@
       <c r="D202" s="4">
         <v>9.2592592592592605E-3</v>
       </c>
+      <c r="E202">
+        <v>1</v>
+      </c>
+      <c r="F202">
+        <v>0</v>
+      </c>
+      <c r="G202">
+        <v>0</v>
+      </c>
       <c r="H202">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="I202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A203">
         <v>5</v>
       </c>
@@ -46927,12 +48736,24 @@
       <c r="D203" s="4">
         <v>9.3749999999999997E-3</v>
       </c>
+      <c r="E203">
+        <v>1</v>
+      </c>
+      <c r="F203">
+        <v>0</v>
+      </c>
+      <c r="G203">
+        <v>0</v>
+      </c>
       <c r="H203">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="I203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A204">
         <v>5</v>
       </c>
@@ -46945,12 +48766,24 @@
       <c r="D204" s="4">
         <v>9.4907407407407406E-3</v>
       </c>
+      <c r="E204">
+        <v>0</v>
+      </c>
+      <c r="F204">
+        <v>0</v>
+      </c>
+      <c r="G204">
+        <v>0</v>
+      </c>
       <c r="H204">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A205">
         <v>5</v>
       </c>
@@ -46963,12 +48796,24 @@
       <c r="D205" s="4">
         <v>9.6064814814814797E-3</v>
       </c>
+      <c r="E205">
+        <v>1</v>
+      </c>
+      <c r="F205">
+        <v>0</v>
+      </c>
+      <c r="G205">
+        <v>0</v>
+      </c>
       <c r="H205">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="I205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A206">
         <v>5</v>
       </c>
@@ -46981,12 +48826,24 @@
       <c r="D206" s="4">
         <v>9.7222222222222206E-3</v>
       </c>
+      <c r="E206">
+        <v>1</v>
+      </c>
+      <c r="F206">
+        <v>1</v>
+      </c>
+      <c r="G206">
+        <v>4</v>
+      </c>
       <c r="H206">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+      <c r="I206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A207">
         <v>5</v>
       </c>
@@ -46999,12 +48856,24 @@
       <c r="D207" s="4">
         <v>9.8379629629629598E-3</v>
       </c>
+      <c r="E207">
+        <v>1</v>
+      </c>
+      <c r="F207">
+        <v>0</v>
+      </c>
+      <c r="G207">
+        <v>0</v>
+      </c>
       <c r="H207">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="I207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A208">
         <v>5</v>
       </c>
@@ -47017,12 +48886,24 @@
       <c r="D208" s="4">
         <v>9.9537037037037007E-3</v>
       </c>
+      <c r="E208">
+        <v>1</v>
+      </c>
+      <c r="F208">
+        <v>1</v>
+      </c>
+      <c r="G208">
+        <v>2</v>
+      </c>
       <c r="H208">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+      <c r="I208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A209">
         <v>5</v>
       </c>
@@ -47035,12 +48916,24 @@
       <c r="D209" s="4">
         <v>1.00694444444444E-2</v>
       </c>
+      <c r="E209">
+        <v>0</v>
+      </c>
+      <c r="F209">
+        <v>1</v>
+      </c>
+      <c r="G209">
+        <v>3</v>
+      </c>
       <c r="H209">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+      <c r="I209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A210">
         <v>5</v>
       </c>
@@ -47053,12 +48946,24 @@
       <c r="D210" s="4">
         <v>1.01851851851852E-2</v>
       </c>
+      <c r="E210">
+        <v>0</v>
+      </c>
+      <c r="F210">
+        <v>1</v>
+      </c>
+      <c r="G210">
+        <v>3</v>
+      </c>
       <c r="H210">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+      <c r="I210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A211">
         <v>5</v>
       </c>
@@ -47071,12 +48976,24 @@
       <c r="D211" s="4">
         <v>1.0300925925925899E-2</v>
       </c>
+      <c r="E211">
+        <v>2</v>
+      </c>
+      <c r="F211">
+        <v>1</v>
+      </c>
+      <c r="G211">
+        <v>3</v>
+      </c>
       <c r="H211">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A212">
         <v>5</v>
       </c>
@@ -47089,12 +49006,24 @@
       <c r="D212" s="4">
         <v>1.0416666666666701E-2</v>
       </c>
+      <c r="E212">
+        <v>1</v>
+      </c>
+      <c r="F212">
+        <v>0</v>
+      </c>
+      <c r="G212">
+        <v>0</v>
+      </c>
       <c r="H212">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A213">
         <v>5</v>
       </c>
@@ -47107,12 +49036,24 @@
       <c r="D213" s="4">
         <v>1.05324074074074E-2</v>
       </c>
+      <c r="E213">
+        <v>0</v>
+      </c>
+      <c r="F213">
+        <v>2</v>
+      </c>
+      <c r="G213">
+        <v>10</v>
+      </c>
       <c r="H213">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+      <c r="I213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A214">
         <v>5</v>
       </c>
@@ -47125,12 +49066,24 @@
       <c r="D214" s="4">
         <v>1.0648148148148099E-2</v>
       </c>
+      <c r="E214">
+        <v>0</v>
+      </c>
+      <c r="F214">
+        <v>3</v>
+      </c>
+      <c r="G214">
+        <v>23</v>
+      </c>
       <c r="H214">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.45">
+        <v>23</v>
+      </c>
+      <c r="I214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A215">
         <v>5</v>
       </c>
@@ -47143,12 +49096,24 @@
       <c r="D215" s="4">
         <v>1.0763888888888899E-2</v>
       </c>
+      <c r="E215">
+        <v>2</v>
+      </c>
+      <c r="F215">
+        <v>0</v>
+      </c>
+      <c r="G215">
+        <v>0</v>
+      </c>
       <c r="H215">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+      <c r="I215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A216">
         <v>5</v>
       </c>
@@ -47161,12 +49126,27 @@
       <c r="D216" s="4">
         <v>1.08796296296296E-2</v>
       </c>
+      <c r="E216">
+        <v>0</v>
+      </c>
+      <c r="F216">
+        <v>0</v>
+      </c>
+      <c r="G216">
+        <v>0</v>
+      </c>
       <c r="H216">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I216">
+        <v>0</v>
+      </c>
+      <c r="K216">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A217">
         <v>5</v>
       </c>
@@ -47179,12 +49159,27 @@
       <c r="D217" s="4">
         <v>1.09953703703704E-2</v>
       </c>
+      <c r="E217">
+        <v>2</v>
+      </c>
+      <c r="F217">
+        <v>1</v>
+      </c>
+      <c r="G217">
+        <v>3</v>
+      </c>
       <c r="H217">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.45">
+        <v>5</v>
+      </c>
+      <c r="I217">
+        <v>0</v>
+      </c>
+      <c r="K217">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A218">
         <v>5</v>
       </c>
@@ -47197,12 +49192,24 @@
       <c r="D218" s="4">
         <v>1.1111111111111099E-2</v>
       </c>
+      <c r="E218">
+        <v>12</v>
+      </c>
+      <c r="F218">
+        <v>3</v>
+      </c>
+      <c r="G218">
+        <v>11</v>
+      </c>
       <c r="H218">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.45">
+        <v>23</v>
+      </c>
+      <c r="I218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A219">
         <v>5</v>
       </c>
@@ -47215,12 +49222,24 @@
       <c r="D219" s="4">
         <v>1.1226851851851899E-2</v>
       </c>
+      <c r="E219">
+        <v>0</v>
+      </c>
+      <c r="F219">
+        <v>0</v>
+      </c>
+      <c r="G219">
+        <v>0</v>
+      </c>
       <c r="H219">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A220">
         <v>5</v>
       </c>
@@ -47233,12 +49252,27 @@
       <c r="D220" s="4">
         <v>1.13425925925926E-2</v>
       </c>
+      <c r="E220">
+        <v>0</v>
+      </c>
+      <c r="F220">
+        <v>0</v>
+      </c>
+      <c r="G220">
+        <v>0</v>
+      </c>
       <c r="H220">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I220">
+        <v>0</v>
+      </c>
+      <c r="K220">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A221">
         <v>5</v>
       </c>
@@ -47251,12 +49285,24 @@
       <c r="D221" s="4">
         <v>1.14583333333333E-2</v>
       </c>
+      <c r="E221">
+        <v>0</v>
+      </c>
+      <c r="F221">
+        <v>0</v>
+      </c>
+      <c r="G221">
+        <v>0</v>
+      </c>
       <c r="H221">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A222">
         <v>5</v>
       </c>
@@ -47269,12 +49315,24 @@
       <c r="D222" s="4">
         <v>1.1574074074074099E-2</v>
       </c>
+      <c r="E222">
+        <v>2</v>
+      </c>
+      <c r="F222">
+        <v>0</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
       <c r="H222">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A223">
         <v>5</v>
       </c>
@@ -47287,12 +49345,27 @@
       <c r="D223" s="4">
         <v>1.16898148148148E-2</v>
       </c>
+      <c r="E223">
+        <v>3</v>
+      </c>
+      <c r="F223">
+        <v>0</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
       <c r="H223">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A224">
         <v>5</v>
       </c>
@@ -47305,12 +49378,24 @@
       <c r="D224" s="4">
         <v>1.18055555555556E-2</v>
       </c>
+      <c r="E224">
+        <v>0</v>
+      </c>
+      <c r="F224">
+        <v>0</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
       <c r="H224">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A225">
         <v>5</v>
       </c>
@@ -47323,12 +49408,27 @@
       <c r="D225" s="4">
         <v>1.19212962962963E-2</v>
       </c>
+      <c r="E225">
+        <v>0</v>
+      </c>
+      <c r="F225">
+        <v>0</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
       <c r="H225">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A226">
         <v>5</v>
       </c>
@@ -47341,12 +49441,24 @@
       <c r="D226" s="4">
         <v>1.2037037037037001E-2</v>
       </c>
+      <c r="E226">
+        <v>0</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
       <c r="H226">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A227">
         <v>5</v>
       </c>
@@ -47359,12 +49471,24 @@
       <c r="D227" s="4">
         <v>1.2152777777777801E-2</v>
       </c>
+      <c r="E227">
+        <v>2</v>
+      </c>
+      <c r="F227">
+        <v>1</v>
+      </c>
+      <c r="G227">
+        <v>4</v>
+      </c>
       <c r="H227">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.45">
+        <v>6</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A228">
         <v>5</v>
       </c>
@@ -47377,12 +49501,27 @@
       <c r="D228" s="4">
         <v>1.22685185185185E-2</v>
       </c>
+      <c r="E228">
+        <v>1</v>
+      </c>
+      <c r="F228">
+        <v>0</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
       <c r="H228">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="I228">
+        <v>2</v>
+      </c>
+      <c r="J228" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A229">
         <v>5</v>
       </c>
@@ -47395,12 +49534,27 @@
       <c r="D229" s="4">
         <v>1.23842592592593E-2</v>
       </c>
+      <c r="E229">
+        <v>0</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
       <c r="H229">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A230">
         <v>5</v>
       </c>
@@ -47413,12 +49567,24 @@
       <c r="D230" s="4">
         <v>1.2500000000000001E-2</v>
       </c>
+      <c r="E230">
+        <v>0</v>
+      </c>
+      <c r="F230">
+        <v>0</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
       <c r="H230">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A231">
         <v>5</v>
       </c>
@@ -47431,12 +49597,27 @@
       <c r="D231" s="4">
         <v>1.26157407407407E-2</v>
       </c>
+      <c r="E231">
+        <v>5</v>
+      </c>
+      <c r="F231">
+        <v>1</v>
+      </c>
+      <c r="G231">
+        <v>3</v>
+      </c>
       <c r="H231">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.45">
+        <v>8</v>
+      </c>
+      <c r="I231">
+        <v>1</v>
+      </c>
+      <c r="J231" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A232">
         <v>5</v>
       </c>
@@ -47449,12 +49630,24 @@
       <c r="D232" s="4">
         <v>1.27314814814815E-2</v>
       </c>
+      <c r="E232">
+        <v>6</v>
+      </c>
+      <c r="F232">
+        <v>1</v>
+      </c>
+      <c r="G232">
+        <v>3</v>
+      </c>
       <c r="H232">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A233">
         <v>5</v>
       </c>
@@ -47467,12 +49660,27 @@
       <c r="D233" s="4">
         <v>1.2847222222222201E-2</v>
       </c>
+      <c r="E233">
+        <v>0</v>
+      </c>
+      <c r="F233">
+        <v>0</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
       <c r="H233">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I233">
+        <v>1</v>
+      </c>
+      <c r="J233" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A234">
         <v>5</v>
       </c>
@@ -47485,12 +49693,24 @@
       <c r="D234" s="4">
         <v>1.2962962962963001E-2</v>
       </c>
+      <c r="E234">
+        <v>0</v>
+      </c>
+      <c r="F234">
+        <v>0</v>
+      </c>
+      <c r="G234">
+        <v>0</v>
+      </c>
       <c r="H234">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A235">
         <v>5</v>
       </c>
@@ -47503,12 +49723,30 @@
       <c r="D235" s="4">
         <v>1.30787037037037E-2</v>
       </c>
+      <c r="E235">
+        <v>0</v>
+      </c>
+      <c r="F235">
+        <v>0</v>
+      </c>
+      <c r="G235">
+        <v>0</v>
+      </c>
       <c r="H235">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I235">
+        <v>3</v>
+      </c>
+      <c r="J235" t="s">
+        <v>50</v>
+      </c>
+      <c r="K235">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A236">
         <v>5</v>
       </c>
@@ -47521,12 +49759,24 @@
       <c r="D236" s="4">
         <v>1.3194444444444399E-2</v>
       </c>
+      <c r="E236">
+        <v>0</v>
+      </c>
+      <c r="F236">
+        <v>0</v>
+      </c>
+      <c r="G236">
+        <v>0</v>
+      </c>
       <c r="H236">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A237">
         <v>5</v>
       </c>
@@ -47539,12 +49789,24 @@
       <c r="D237" s="4">
         <v>1.3310185185185199E-2</v>
       </c>
+      <c r="E237">
+        <v>4</v>
+      </c>
+      <c r="F237">
+        <v>1</v>
+      </c>
+      <c r="G237">
+        <v>3</v>
+      </c>
       <c r="H237">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+      <c r="I237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A238">
         <v>5</v>
       </c>
@@ -47557,12 +49819,24 @@
       <c r="D238" s="4">
         <v>1.34259259259259E-2</v>
       </c>
+      <c r="E238">
+        <v>7</v>
+      </c>
+      <c r="F238">
+        <v>0</v>
+      </c>
+      <c r="G238">
+        <v>0</v>
+      </c>
       <c r="H238">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+      <c r="I238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A239">
         <v>5</v>
       </c>
@@ -47575,12 +49849,24 @@
       <c r="D239" s="4">
         <v>1.35416666666667E-2</v>
       </c>
+      <c r="E239">
+        <v>1</v>
+      </c>
+      <c r="F239">
+        <v>0</v>
+      </c>
+      <c r="G239">
+        <v>0</v>
+      </c>
       <c r="H239">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="I239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A240">
         <v>5</v>
       </c>
@@ -47593,12 +49879,24 @@
       <c r="D240" s="4">
         <v>1.3657407407407399E-2</v>
       </c>
+      <c r="E240">
+        <v>4</v>
+      </c>
+      <c r="F240">
+        <v>2</v>
+      </c>
+      <c r="G240">
+        <v>11</v>
+      </c>
       <c r="H240">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.45">
+        <v>15</v>
+      </c>
+      <c r="I240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A241">
         <v>5</v>
       </c>
@@ -47611,12 +49909,27 @@
       <c r="D241" s="4">
         <v>1.37731481481481E-2</v>
       </c>
+      <c r="E241">
+        <v>0</v>
+      </c>
+      <c r="F241">
+        <v>0</v>
+      </c>
+      <c r="G241">
+        <v>0</v>
+      </c>
       <c r="H241">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I241">
+        <v>0</v>
+      </c>
+      <c r="L241" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A242">
         <v>5</v>
       </c>
@@ -47634,7 +49947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A243">
         <v>5</v>
       </c>
@@ -47652,7 +49965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A244">
         <v>5</v>
       </c>
@@ -47670,7 +49983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A245">
         <v>5</v>
       </c>
@@ -47688,7 +50001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A246">
         <v>5</v>
       </c>
@@ -47706,7 +50019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A247">
         <v>5</v>
       </c>
@@ -47724,7 +50037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A248">
         <v>5</v>
       </c>
@@ -47742,7 +50055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A249">
         <v>5</v>
       </c>
@@ -47760,7 +50073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A250">
         <v>5</v>
       </c>
@@ -47778,7 +50091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A251">
         <v>5</v>
       </c>
@@ -47796,7 +50109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A252">
         <v>5</v>
       </c>
@@ -47814,7 +50127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A253">
         <v>5</v>
       </c>
@@ -47832,7 +50145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A254">
         <v>5</v>
       </c>
@@ -47850,7 +50163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A255">
         <v>5</v>
       </c>
@@ -47868,7 +50181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A256">
         <v>5</v>
       </c>
@@ -54105,8 +56418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A876EE6-3FEB-409D-B4D9-F8D0A7AA3827}">
   <dimension ref="A1:L601"/>
   <sheetViews>
-    <sheetView topLeftCell="C95" workbookViewId="0">
-      <selection activeCell="E123" sqref="E123"/>
+    <sheetView topLeftCell="C216" workbookViewId="0">
+      <selection activeCell="E242" sqref="E242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -57847,9 +60160,24 @@
       <c r="D122" s="4">
         <v>0</v>
       </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
       <c r="H122">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+      <c r="I122">
+        <v>3</v>
+      </c>
+      <c r="J122" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.45">
@@ -57865,8 +60193,20 @@
       <c r="D123" s="4">
         <v>1.1574074074074073E-4</v>
       </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>0</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
       <c r="H123">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I123">
         <v>0</v>
       </c>
     </row>
@@ -57883,8 +60223,20 @@
       <c r="D124" s="4">
         <v>2.31481481481481E-4</v>
       </c>
+      <c r="E124">
+        <v>0</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>0</v>
+      </c>
       <c r="H124">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I124">
         <v>0</v>
       </c>
     </row>
@@ -57901,8 +60253,20 @@
       <c r="D125" s="4">
         <v>3.4722222222222202E-4</v>
       </c>
+      <c r="E125">
+        <v>0</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>0</v>
+      </c>
       <c r="H125">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I125">
         <v>0</v>
       </c>
     </row>
@@ -57919,8 +60283,20 @@
       <c r="D126" s="4">
         <v>4.6296296296296298E-4</v>
       </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>0</v>
+      </c>
       <c r="H126">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I126">
         <v>0</v>
       </c>
     </row>
@@ -57937,8 +60313,20 @@
       <c r="D127" s="4">
         <v>5.78703703703704E-4</v>
       </c>
+      <c r="E127">
+        <v>0</v>
+      </c>
+      <c r="F127">
+        <v>0</v>
+      </c>
+      <c r="G127">
+        <v>0</v>
+      </c>
       <c r="H127">
         <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I127">
         <v>0</v>
       </c>
     </row>
@@ -57955,12 +60343,24 @@
       <c r="D128" s="4">
         <v>6.9444444444444404E-4</v>
       </c>
+      <c r="E128">
+        <v>4</v>
+      </c>
+      <c r="F128">
+        <v>0</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
       <c r="H128">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>40</v>
       </c>
@@ -57973,12 +60373,24 @@
       <c r="D129" s="4">
         <v>8.1018518518518505E-4</v>
       </c>
+      <c r="E129">
+        <v>0</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+      <c r="G129">
+        <v>0</v>
+      </c>
       <c r="H129">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>40</v>
       </c>
@@ -57991,12 +60403,24 @@
       <c r="D130" s="4">
         <v>9.2592592592592596E-4</v>
       </c>
+      <c r="E130">
+        <v>1</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130">
+        <v>0</v>
+      </c>
       <c r="H130">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>40</v>
       </c>
@@ -58009,12 +60433,24 @@
       <c r="D131" s="4">
         <v>1.0416666666666699E-3</v>
       </c>
+      <c r="E131">
+        <v>0</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131">
+        <v>0</v>
+      </c>
       <c r="H131">
         <f t="shared" ref="H131:H194" si="2">E131+G131</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>40</v>
       </c>
@@ -58027,12 +60463,24 @@
       <c r="D132" s="4">
         <v>1.1574074074074099E-3</v>
       </c>
+      <c r="E132">
+        <v>1</v>
+      </c>
+      <c r="F132">
+        <v>0</v>
+      </c>
+      <c r="G132">
+        <v>0</v>
+      </c>
       <c r="H132">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>40</v>
       </c>
@@ -58045,12 +60493,24 @@
       <c r="D133" s="4">
         <v>1.27314814814815E-3</v>
       </c>
+      <c r="E133">
+        <v>4</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
       <c r="H133">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>40</v>
       </c>
@@ -58063,12 +60523,24 @@
       <c r="D134" s="4">
         <v>1.38888888888889E-3</v>
       </c>
+      <c r="E134">
+        <v>0</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
       <c r="H134">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>40</v>
       </c>
@@ -58081,12 +60553,27 @@
       <c r="D135" s="4">
         <v>1.5046296296296301E-3</v>
       </c>
+      <c r="E135">
+        <v>0</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
       <c r="H135">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="J135" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>40</v>
       </c>
@@ -58099,12 +60586,27 @@
       <c r="D136" s="4">
         <v>1.6203703703703701E-3</v>
       </c>
+      <c r="E136">
+        <v>1</v>
+      </c>
+      <c r="F136">
+        <v>0</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
       <c r="H136">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="I136">
+        <v>3</v>
+      </c>
+      <c r="J136" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>40</v>
       </c>
@@ -58117,12 +60619,27 @@
       <c r="D137" s="4">
         <v>1.7361111111111099E-3</v>
       </c>
+      <c r="E137">
+        <v>0</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137">
+        <v>0</v>
+      </c>
       <c r="H137">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I137">
+        <v>3</v>
+      </c>
+      <c r="J137" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>40</v>
       </c>
@@ -58135,12 +60652,24 @@
       <c r="D138" s="4">
         <v>1.85185185185185E-3</v>
       </c>
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
+        <v>0</v>
+      </c>
+      <c r="G138">
+        <v>0</v>
+      </c>
       <c r="H138">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>40</v>
       </c>
@@ -58153,12 +60682,24 @@
       <c r="D139" s="4">
         <v>1.9675925925925898E-3</v>
       </c>
+      <c r="E139">
+        <v>0</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139">
+        <v>0</v>
+      </c>
       <c r="H139">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>40</v>
       </c>
@@ -58171,12 +60712,27 @@
       <c r="D140" s="4">
         <v>2.0833333333333298E-3</v>
       </c>
+      <c r="E140">
+        <v>0</v>
+      </c>
+      <c r="F140">
+        <v>0</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
       <c r="H140">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I140">
+        <v>1</v>
+      </c>
+      <c r="J140" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>40</v>
       </c>
@@ -58189,12 +60745,27 @@
       <c r="D141" s="4">
         <v>2.1990740740740699E-3</v>
       </c>
+      <c r="E141">
+        <v>4</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141">
+        <v>0</v>
+      </c>
       <c r="H141">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+      <c r="I141">
+        <v>2</v>
+      </c>
+      <c r="J141" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>40</v>
       </c>
@@ -58207,12 +60778,27 @@
       <c r="D142" s="4">
         <v>2.3148148148148099E-3</v>
       </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
       <c r="H142">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I142">
+        <v>2</v>
+      </c>
+      <c r="J142" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>40</v>
       </c>
@@ -58225,12 +60811,27 @@
       <c r="D143" s="4">
         <v>2.4305555555555599E-3</v>
       </c>
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
+        <v>0</v>
+      </c>
+      <c r="G143">
+        <v>0</v>
+      </c>
       <c r="H143">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I143">
+        <v>1</v>
+      </c>
+      <c r="J143" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>40</v>
       </c>
@@ -58243,12 +60844,27 @@
       <c r="D144" s="4">
         <v>2.5462962962963E-3</v>
       </c>
+      <c r="E144">
+        <v>0</v>
+      </c>
+      <c r="F144">
+        <v>0</v>
+      </c>
+      <c r="G144">
+        <v>0</v>
+      </c>
       <c r="H144">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I144">
+        <v>3</v>
+      </c>
+      <c r="J144" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>40</v>
       </c>
@@ -58261,12 +60877,24 @@
       <c r="D145" s="4">
         <v>2.66203703703704E-3</v>
       </c>
+      <c r="E145">
+        <v>0</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+      <c r="G145">
+        <v>0</v>
+      </c>
       <c r="H145">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>40</v>
       </c>
@@ -58279,12 +60907,27 @@
       <c r="D146" s="4">
         <v>2.7777777777777801E-3</v>
       </c>
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+      <c r="G146">
+        <v>0</v>
+      </c>
       <c r="H146">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I146">
+        <v>2</v>
+      </c>
+      <c r="J146" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>40</v>
       </c>
@@ -58297,12 +60940,27 @@
       <c r="D147" s="4">
         <v>2.8935185185185201E-3</v>
       </c>
+      <c r="E147">
+        <v>2</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147">
+        <v>0</v>
+      </c>
       <c r="H147">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+      <c r="I147">
+        <v>1</v>
+      </c>
+      <c r="J147" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>40</v>
       </c>
@@ -58315,12 +60973,27 @@
       <c r="D148" s="4">
         <v>3.0092592592592601E-3</v>
       </c>
+      <c r="E148">
+        <v>0</v>
+      </c>
+      <c r="F148">
+        <v>0</v>
+      </c>
+      <c r="G148">
+        <v>0</v>
+      </c>
       <c r="H148">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I148">
+        <v>1</v>
+      </c>
+      <c r="J148" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>40</v>
       </c>
@@ -58333,12 +61006,27 @@
       <c r="D149" s="4">
         <v>3.1250000000000002E-3</v>
       </c>
+      <c r="E149">
+        <v>0</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149">
+        <v>0</v>
+      </c>
       <c r="H149">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I149">
+        <v>1</v>
+      </c>
+      <c r="J149" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>40</v>
       </c>
@@ -58351,12 +61039,24 @@
       <c r="D150" s="4">
         <v>3.2407407407407402E-3</v>
       </c>
+      <c r="E150">
+        <v>0</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150">
+        <v>0</v>
+      </c>
       <c r="H150">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>40</v>
       </c>
@@ -58369,12 +61069,24 @@
       <c r="D151" s="4">
         <v>3.3564814814814798E-3</v>
       </c>
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>1</v>
+      </c>
+      <c r="G151">
+        <v>7</v>
+      </c>
       <c r="H151">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>40</v>
       </c>
@@ -58387,12 +61099,24 @@
       <c r="D152" s="4">
         <v>3.4722222222222199E-3</v>
       </c>
+      <c r="E152">
+        <v>1</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
       <c r="H152">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>40</v>
       </c>
@@ -58405,12 +61129,24 @@
       <c r="D153" s="4">
         <v>3.5879629629629599E-3</v>
       </c>
+      <c r="E153">
+        <v>0</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
       <c r="H153">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>40</v>
       </c>
@@ -58423,12 +61159,24 @@
       <c r="D154" s="4">
         <v>3.7037037037036999E-3</v>
       </c>
+      <c r="E154">
+        <v>0</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+      <c r="G154">
+        <v>0</v>
+      </c>
       <c r="H154">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I154">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A155">
         <v>40</v>
       </c>
@@ -58441,12 +61189,24 @@
       <c r="D155" s="4">
         <v>3.81944444444444E-3</v>
       </c>
+      <c r="E155">
+        <v>0</v>
+      </c>
+      <c r="F155">
+        <v>1</v>
+      </c>
+      <c r="G155">
+        <v>21</v>
+      </c>
       <c r="H155">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.45">
+        <v>21</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A156">
         <v>40</v>
       </c>
@@ -58459,12 +61219,24 @@
       <c r="D156" s="4">
         <v>3.9351851851851796E-3</v>
       </c>
+      <c r="E156">
+        <v>0</v>
+      </c>
+      <c r="F156">
+        <v>1</v>
+      </c>
+      <c r="G156">
+        <v>9</v>
+      </c>
       <c r="H156">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.45">
+        <v>9</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>40</v>
       </c>
@@ -58477,12 +61249,24 @@
       <c r="D157" s="4">
         <v>4.05092592592593E-3</v>
       </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157">
+        <v>0</v>
+      </c>
       <c r="H157">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>40</v>
       </c>
@@ -58495,12 +61279,24 @@
       <c r="D158" s="4">
         <v>4.1666666666666701E-3</v>
       </c>
+      <c r="E158">
+        <v>0</v>
+      </c>
+      <c r="F158">
+        <v>0</v>
+      </c>
+      <c r="G158">
+        <v>0</v>
+      </c>
       <c r="H158">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A159">
         <v>40</v>
       </c>
@@ -58513,12 +61309,24 @@
       <c r="D159" s="4">
         <v>4.2824074074074101E-3</v>
       </c>
+      <c r="E159">
+        <v>0</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
       <c r="H159">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A160">
         <v>40</v>
       </c>
@@ -58531,12 +61339,24 @@
       <c r="D160" s="4">
         <v>4.3981481481481502E-3</v>
       </c>
+      <c r="E160">
+        <v>0</v>
+      </c>
+      <c r="F160">
+        <v>0</v>
+      </c>
+      <c r="G160">
+        <v>0</v>
+      </c>
       <c r="H160">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I160">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>40</v>
       </c>
@@ -58549,12 +61369,24 @@
       <c r="D161" s="4">
         <v>4.5138888888888902E-3</v>
       </c>
+      <c r="E161">
+        <v>0</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+      <c r="G161">
+        <v>0</v>
+      </c>
       <c r="H161">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>40</v>
       </c>
@@ -58567,12 +61399,24 @@
       <c r="D162" s="4">
         <v>4.6296296296296302E-3</v>
       </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+      <c r="F162">
+        <v>0</v>
+      </c>
+      <c r="G162">
+        <v>0</v>
+      </c>
       <c r="H162">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I162">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>40</v>
       </c>
@@ -58585,12 +61429,24 @@
       <c r="D163" s="4">
         <v>4.7453703703703703E-3</v>
       </c>
+      <c r="E163">
+        <v>0</v>
+      </c>
+      <c r="F163">
+        <v>0</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
       <c r="H163">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I163">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A164">
         <v>40</v>
       </c>
@@ -58603,12 +61459,24 @@
       <c r="D164" s="4">
         <v>4.8611111111111103E-3</v>
       </c>
+      <c r="E164">
+        <v>0</v>
+      </c>
+      <c r="F164">
+        <v>2</v>
+      </c>
+      <c r="G164">
+        <v>12</v>
+      </c>
       <c r="H164">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.45">
+        <f>E164+G164</f>
+        <v>12</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A165">
         <v>40</v>
       </c>
@@ -58621,12 +61489,24 @@
       <c r="D165" s="4">
         <v>4.9768518518518504E-3</v>
       </c>
+      <c r="E165">
+        <v>0</v>
+      </c>
+      <c r="F165">
+        <v>0</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
       <c r="H165">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.45">
+        <f>E165+G165</f>
+        <v>0</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A166">
         <v>40</v>
       </c>
@@ -58639,12 +61519,24 @@
       <c r="D166" s="4">
         <v>5.0925925925925904E-3</v>
       </c>
+      <c r="E166">
+        <v>0</v>
+      </c>
+      <c r="F166">
+        <v>0</v>
+      </c>
+      <c r="G166">
+        <v>0</v>
+      </c>
       <c r="H166">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>40</v>
       </c>
@@ -58657,12 +61549,24 @@
       <c r="D167" s="4">
         <v>5.2083333333333296E-3</v>
       </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="F167">
+        <v>0</v>
+      </c>
+      <c r="G167">
+        <v>0</v>
+      </c>
       <c r="H167">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>40</v>
       </c>
@@ -58675,12 +61579,24 @@
       <c r="D168" s="4">
         <v>5.3240740740740696E-3</v>
       </c>
+      <c r="E168">
+        <v>0</v>
+      </c>
+      <c r="F168">
+        <v>0</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
       <c r="H168">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>40</v>
       </c>
@@ -58693,12 +61609,24 @@
       <c r="D169" s="4">
         <v>5.4398148148148097E-3</v>
       </c>
+      <c r="E169">
+        <v>2</v>
+      </c>
+      <c r="F169">
+        <v>0</v>
+      </c>
+      <c r="G169">
+        <v>0</v>
+      </c>
       <c r="H169">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A170">
         <v>40</v>
       </c>
@@ -58711,12 +61639,24 @@
       <c r="D170" s="4">
         <v>5.5555555555555497E-3</v>
       </c>
+      <c r="E170">
+        <v>0</v>
+      </c>
+      <c r="F170">
+        <v>0</v>
+      </c>
+      <c r="G170">
+        <v>0</v>
+      </c>
       <c r="H170">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A171">
         <v>40</v>
       </c>
@@ -58729,12 +61669,24 @@
       <c r="D171" s="4">
         <v>5.6712962962963001E-3</v>
       </c>
+      <c r="E171">
+        <v>0</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
+      <c r="G171">
+        <v>0</v>
+      </c>
       <c r="H171">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>40</v>
       </c>
@@ -58747,12 +61699,24 @@
       <c r="D172" s="4">
         <v>5.7870370370370402E-3</v>
       </c>
+      <c r="E172">
+        <v>1</v>
+      </c>
+      <c r="F172">
+        <v>0</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
       <c r="H172">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>40</v>
       </c>
@@ -58765,12 +61729,24 @@
       <c r="D173" s="4">
         <v>5.9027777777777802E-3</v>
       </c>
+      <c r="E173">
+        <v>0</v>
+      </c>
+      <c r="F173">
+        <v>0</v>
+      </c>
+      <c r="G173">
+        <v>0</v>
+      </c>
       <c r="H173">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A174">
         <v>40</v>
       </c>
@@ -58783,12 +61759,24 @@
       <c r="D174" s="4">
         <v>6.0185185185185203E-3</v>
       </c>
+      <c r="E174">
+        <v>0</v>
+      </c>
+      <c r="F174">
+        <v>0</v>
+      </c>
+      <c r="G174">
+        <v>0</v>
+      </c>
       <c r="H174">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A175">
         <v>40</v>
       </c>
@@ -58801,12 +61789,24 @@
       <c r="D175" s="4">
         <v>6.1342592592592603E-3</v>
       </c>
+      <c r="E175">
+        <v>2</v>
+      </c>
+      <c r="F175">
+        <v>0</v>
+      </c>
+      <c r="G175">
+        <v>0</v>
+      </c>
       <c r="H175">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>40</v>
       </c>
@@ -58819,12 +61819,24 @@
       <c r="D176" s="4">
         <v>6.2500000000000003E-3</v>
       </c>
+      <c r="E176">
+        <v>0</v>
+      </c>
+      <c r="F176">
+        <v>0</v>
+      </c>
+      <c r="G176">
+        <v>0</v>
+      </c>
       <c r="H176">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>40</v>
       </c>
@@ -58837,12 +61849,24 @@
       <c r="D177" s="4">
         <v>6.3657407407407404E-3</v>
       </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+      <c r="G177">
+        <v>0</v>
+      </c>
       <c r="H177">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>40</v>
       </c>
@@ -58855,12 +61879,24 @@
       <c r="D178" s="4">
         <v>6.4814814814814804E-3</v>
       </c>
+      <c r="E178">
+        <v>0</v>
+      </c>
+      <c r="F178">
+        <v>0</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
+      </c>
       <c r="H178">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A179">
         <v>40</v>
       </c>
@@ -58873,12 +61909,24 @@
       <c r="D179" s="4">
         <v>6.5972222222222196E-3</v>
       </c>
+      <c r="E179">
+        <v>0</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+      <c r="G179">
+        <v>0</v>
+      </c>
       <c r="H179">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A180">
         <v>40</v>
       </c>
@@ -58891,12 +61939,24 @@
       <c r="D180" s="4">
         <v>6.7129629629629596E-3</v>
       </c>
+      <c r="E180">
+        <v>0</v>
+      </c>
+      <c r="F180">
+        <v>0</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
       <c r="H180">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A181">
         <v>40</v>
       </c>
@@ -58909,12 +61969,24 @@
       <c r="D181" s="4">
         <v>6.8287037037036997E-3</v>
       </c>
+      <c r="E181">
+        <v>0</v>
+      </c>
+      <c r="F181">
+        <v>0</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
       <c r="H181">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A182">
         <v>40</v>
       </c>
@@ -58927,12 +61999,24 @@
       <c r="D182" s="4">
         <v>6.9444444444444397E-3</v>
       </c>
+      <c r="E182">
+        <v>0</v>
+      </c>
+      <c r="F182">
+        <v>0</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
       <c r="H182">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A183">
         <v>40</v>
       </c>
@@ -58945,12 +62029,24 @@
       <c r="D183" s="4">
         <v>7.0601851851851798E-3</v>
       </c>
+      <c r="E183">
+        <v>0</v>
+      </c>
+      <c r="F183">
+        <v>0</v>
+      </c>
+      <c r="G183">
+        <v>0</v>
+      </c>
       <c r="H183">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A184">
         <v>40</v>
       </c>
@@ -58963,12 +62059,24 @@
       <c r="D184" s="4">
         <v>7.1759259259259302E-3</v>
       </c>
+      <c r="E184">
+        <v>0</v>
+      </c>
+      <c r="F184">
+        <v>0</v>
+      </c>
+      <c r="G184">
+        <v>0</v>
+      </c>
       <c r="H184">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A185">
         <v>40</v>
       </c>
@@ -58981,12 +62089,24 @@
       <c r="D185" s="4">
         <v>7.2916666666666703E-3</v>
       </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+      <c r="F185">
+        <v>0</v>
+      </c>
+      <c r="G185">
+        <v>0</v>
+      </c>
       <c r="H185">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A186">
         <v>40</v>
       </c>
@@ -58999,12 +62119,24 @@
       <c r="D186" s="4">
         <v>7.4074074074074103E-3</v>
       </c>
+      <c r="E186">
+        <v>0</v>
+      </c>
+      <c r="F186">
+        <v>0</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
       <c r="H186">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A187">
         <v>40</v>
       </c>
@@ -59017,12 +62149,24 @@
       <c r="D187" s="4">
         <v>7.5231481481481503E-3</v>
       </c>
+      <c r="E187">
+        <v>0</v>
+      </c>
+      <c r="F187">
+        <v>0</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
       <c r="H187">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A188">
         <v>40</v>
       </c>
@@ -59035,12 +62179,27 @@
       <c r="D188" s="4">
         <v>7.6388888888888904E-3</v>
       </c>
+      <c r="E188">
+        <v>0</v>
+      </c>
+      <c r="F188">
+        <v>0</v>
+      </c>
+      <c r="G188">
+        <v>0</v>
+      </c>
       <c r="H188">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I188">
+        <v>2</v>
+      </c>
+      <c r="J188" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A189">
         <v>40</v>
       </c>
@@ -59053,12 +62212,27 @@
       <c r="D189" s="4">
         <v>7.7546296296296304E-3</v>
       </c>
+      <c r="E189">
+        <v>0</v>
+      </c>
+      <c r="F189">
+        <v>0</v>
+      </c>
+      <c r="G189">
+        <v>0</v>
+      </c>
       <c r="H189">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I189">
+        <v>1</v>
+      </c>
+      <c r="J189" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A190">
         <v>40</v>
       </c>
@@ -59071,12 +62245,24 @@
       <c r="D190" s="4">
         <v>7.8703703703703696E-3</v>
       </c>
+      <c r="E190">
+        <v>0</v>
+      </c>
+      <c r="F190">
+        <v>0</v>
+      </c>
+      <c r="G190">
+        <v>0</v>
+      </c>
       <c r="H190">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A191">
         <v>40</v>
       </c>
@@ -59089,12 +62275,27 @@
       <c r="D191" s="4">
         <v>7.9861111111111105E-3</v>
       </c>
+      <c r="E191">
+        <v>0</v>
+      </c>
+      <c r="F191">
+        <v>0</v>
+      </c>
+      <c r="G191">
+        <v>0</v>
+      </c>
       <c r="H191">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I191">
+        <v>1</v>
+      </c>
+      <c r="J191" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A192">
         <v>40</v>
       </c>
@@ -59107,12 +62308,24 @@
       <c r="D192" s="4">
         <v>8.1018518518518497E-3</v>
       </c>
+      <c r="E192">
+        <v>2</v>
+      </c>
+      <c r="F192">
+        <v>0</v>
+      </c>
+      <c r="G192">
+        <v>0</v>
+      </c>
       <c r="H192">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+      <c r="I192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A193">
         <v>40</v>
       </c>
@@ -59125,12 +62338,24 @@
       <c r="D193" s="4">
         <v>8.2175925925925906E-3</v>
       </c>
+      <c r="E193">
+        <v>0</v>
+      </c>
+      <c r="F193">
+        <v>0</v>
+      </c>
+      <c r="G193">
+        <v>0</v>
+      </c>
       <c r="H193">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A194">
         <v>40</v>
       </c>
@@ -59143,12 +62368,24 @@
       <c r="D194" s="4">
         <v>8.3333333333333297E-3</v>
       </c>
+      <c r="E194">
+        <v>1</v>
+      </c>
+      <c r="F194">
+        <v>0</v>
+      </c>
+      <c r="G194">
+        <v>0</v>
+      </c>
       <c r="H194">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="I194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A195">
         <v>40</v>
       </c>
@@ -59161,12 +62398,24 @@
       <c r="D195" s="4">
         <v>8.4490740740740707E-3</v>
       </c>
+      <c r="E195">
+        <v>0</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+      <c r="G195">
+        <v>0</v>
+      </c>
       <c r="H195">
         <f t="shared" ref="H195:H258" si="3">E195+G195</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A196">
         <v>40</v>
       </c>
@@ -59179,12 +62428,24 @@
       <c r="D196" s="4">
         <v>8.5648148148148098E-3</v>
       </c>
+      <c r="E196">
+        <v>0</v>
+      </c>
+      <c r="F196">
+        <v>0</v>
+      </c>
+      <c r="G196">
+        <v>0</v>
+      </c>
       <c r="H196">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A197">
         <v>40</v>
       </c>
@@ -59197,12 +62458,27 @@
       <c r="D197" s="4">
         <v>8.6805555555555507E-3</v>
       </c>
+      <c r="E197">
+        <v>0</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+      <c r="G197">
+        <v>0</v>
+      </c>
       <c r="H197">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I197">
+        <v>1</v>
+      </c>
+      <c r="J197" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A198">
         <v>40</v>
       </c>
@@ -59215,12 +62491,24 @@
       <c r="D198" s="4">
         <v>8.7962962962963003E-3</v>
       </c>
+      <c r="E198">
+        <v>0</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
+      <c r="G198">
+        <v>0</v>
+      </c>
       <c r="H198">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A199">
         <v>40</v>
       </c>
@@ -59233,12 +62521,27 @@
       <c r="D199" s="4">
         <v>8.9120370370370395E-3</v>
       </c>
+      <c r="E199">
+        <v>0</v>
+      </c>
+      <c r="F199">
+        <v>2</v>
+      </c>
+      <c r="G199">
+        <v>10</v>
+      </c>
       <c r="H199">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+      <c r="I199">
+        <v>1</v>
+      </c>
+      <c r="J199" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A200">
         <v>40</v>
       </c>
@@ -59251,12 +62554,24 @@
       <c r="D200" s="4">
         <v>9.0277777777777804E-3</v>
       </c>
+      <c r="E200">
+        <v>0</v>
+      </c>
+      <c r="F200">
+        <v>0</v>
+      </c>
+      <c r="G200">
+        <v>0</v>
+      </c>
       <c r="H200">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A201">
         <v>40</v>
       </c>
@@ -59269,12 +62584,24 @@
       <c r="D201" s="4">
         <v>9.1435185185185196E-3</v>
       </c>
+      <c r="E201">
+        <v>0</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
+      <c r="G201">
+        <v>0</v>
+      </c>
       <c r="H201">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A202">
         <v>40</v>
       </c>
@@ -59287,12 +62614,24 @@
       <c r="D202" s="4">
         <v>9.2592592592592605E-3</v>
       </c>
+      <c r="E202">
+        <v>0</v>
+      </c>
+      <c r="F202">
+        <v>0</v>
+      </c>
+      <c r="G202">
+        <v>0</v>
+      </c>
       <c r="H202">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A203">
         <v>40</v>
       </c>
@@ -59305,12 +62644,24 @@
       <c r="D203" s="4">
         <v>9.3749999999999997E-3</v>
       </c>
+      <c r="E203">
+        <v>1</v>
+      </c>
+      <c r="F203">
+        <v>0</v>
+      </c>
+      <c r="G203">
+        <v>0</v>
+      </c>
       <c r="H203">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="I203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A204">
         <v>40</v>
       </c>
@@ -59323,12 +62674,24 @@
       <c r="D204" s="4">
         <v>9.4907407407407406E-3</v>
       </c>
+      <c r="E204">
+        <v>0</v>
+      </c>
+      <c r="F204">
+        <v>0</v>
+      </c>
+      <c r="G204">
+        <v>0</v>
+      </c>
       <c r="H204">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A205">
         <v>40</v>
       </c>
@@ -59341,12 +62704,24 @@
       <c r="D205" s="4">
         <v>9.6064814814814797E-3</v>
       </c>
+      <c r="E205">
+        <v>0</v>
+      </c>
+      <c r="F205">
+        <v>0</v>
+      </c>
+      <c r="G205">
+        <v>0</v>
+      </c>
       <c r="H205">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A206">
         <v>40</v>
       </c>
@@ -59359,12 +62734,24 @@
       <c r="D206" s="4">
         <v>9.7222222222222206E-3</v>
       </c>
+      <c r="E206">
+        <v>0</v>
+      </c>
+      <c r="F206">
+        <v>0</v>
+      </c>
+      <c r="G206">
+        <v>0</v>
+      </c>
       <c r="H206">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A207">
         <v>40</v>
       </c>
@@ -59377,12 +62764,24 @@
       <c r="D207" s="4">
         <v>9.8379629629629598E-3</v>
       </c>
+      <c r="E207">
+        <v>0</v>
+      </c>
+      <c r="F207">
+        <v>0</v>
+      </c>
+      <c r="G207">
+        <v>0</v>
+      </c>
       <c r="H207">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A208">
         <v>40</v>
       </c>
@@ -59395,12 +62794,24 @@
       <c r="D208" s="4">
         <v>9.9537037037037007E-3</v>
       </c>
+      <c r="E208">
+        <v>0</v>
+      </c>
+      <c r="F208">
+        <v>3</v>
+      </c>
+      <c r="G208">
+        <v>12</v>
+      </c>
       <c r="H208">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.45">
+        <v>12</v>
+      </c>
+      <c r="I208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A209">
         <v>40</v>
       </c>
@@ -59413,12 +62824,24 @@
       <c r="D209" s="4">
         <v>1.00694444444444E-2</v>
       </c>
+      <c r="E209">
+        <v>0</v>
+      </c>
+      <c r="F209">
+        <v>0</v>
+      </c>
+      <c r="G209">
+        <v>0</v>
+      </c>
       <c r="H209">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A210">
         <v>40</v>
       </c>
@@ -59431,12 +62854,24 @@
       <c r="D210" s="4">
         <v>1.01851851851852E-2</v>
       </c>
+      <c r="E210">
+        <v>0</v>
+      </c>
+      <c r="F210">
+        <v>0</v>
+      </c>
+      <c r="G210">
+        <v>0</v>
+      </c>
       <c r="H210">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A211">
         <v>40</v>
       </c>
@@ -59449,12 +62884,24 @@
       <c r="D211" s="4">
         <v>1.0300925925925899E-2</v>
       </c>
+      <c r="E211">
+        <v>0</v>
+      </c>
+      <c r="F211">
+        <v>0</v>
+      </c>
+      <c r="G211">
+        <v>0</v>
+      </c>
       <c r="H211">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.45">
+        <f>E211+G211</f>
+        <v>0</v>
+      </c>
+      <c r="I211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A212">
         <v>40</v>
       </c>
@@ -59467,12 +62914,24 @@
       <c r="D212" s="4">
         <v>1.0416666666666701E-2</v>
       </c>
+      <c r="E212">
+        <v>1</v>
+      </c>
+      <c r="F212">
+        <v>0</v>
+      </c>
+      <c r="G212">
+        <v>0</v>
+      </c>
       <c r="H212">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="I212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A213">
         <v>40</v>
       </c>
@@ -59485,12 +62944,27 @@
       <c r="D213" s="4">
         <v>1.05324074074074E-2</v>
       </c>
+      <c r="E213">
+        <v>0</v>
+      </c>
+      <c r="F213">
+        <v>0</v>
+      </c>
+      <c r="G213">
+        <v>0</v>
+      </c>
       <c r="H213">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I213">
+        <v>1</v>
+      </c>
+      <c r="J213" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A214">
         <v>40</v>
       </c>
@@ -59503,12 +62977,30 @@
       <c r="D214" s="4">
         <v>1.0648148148148099E-2</v>
       </c>
+      <c r="E214">
+        <v>0</v>
+      </c>
+      <c r="F214">
+        <v>0</v>
+      </c>
+      <c r="G214">
+        <v>0</v>
+      </c>
       <c r="H214">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I214">
+        <v>1</v>
+      </c>
+      <c r="J214" t="s">
+        <v>49</v>
+      </c>
+      <c r="K214">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A215">
         <v>40</v>
       </c>
@@ -59521,12 +63013,27 @@
       <c r="D215" s="4">
         <v>1.0763888888888899E-2</v>
       </c>
+      <c r="E215">
+        <v>0</v>
+      </c>
+      <c r="F215">
+        <v>1</v>
+      </c>
+      <c r="G215">
+        <v>3</v>
+      </c>
       <c r="H215">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+      <c r="I215">
+        <v>2</v>
+      </c>
+      <c r="J215" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A216">
         <v>40</v>
       </c>
@@ -59539,12 +63046,24 @@
       <c r="D216" s="4">
         <v>1.08796296296296E-2</v>
       </c>
+      <c r="E216">
+        <v>2</v>
+      </c>
+      <c r="F216">
+        <v>0</v>
+      </c>
+      <c r="G216">
+        <v>0</v>
+      </c>
       <c r="H216">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+      <c r="I216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A217">
         <v>40</v>
       </c>
@@ -59557,12 +63076,24 @@
       <c r="D217" s="4">
         <v>1.09953703703704E-2</v>
       </c>
+      <c r="E217">
+        <v>0</v>
+      </c>
+      <c r="F217">
+        <v>0</v>
+      </c>
+      <c r="G217">
+        <v>0</v>
+      </c>
       <c r="H217">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A218">
         <v>40</v>
       </c>
@@ -59575,12 +63106,24 @@
       <c r="D218" s="4">
         <v>1.1111111111111099E-2</v>
       </c>
+      <c r="E218">
+        <v>0</v>
+      </c>
+      <c r="F218">
+        <v>0</v>
+      </c>
+      <c r="G218">
+        <v>0</v>
+      </c>
       <c r="H218">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A219">
         <v>40</v>
       </c>
@@ -59593,12 +63136,30 @@
       <c r="D219" s="4">
         <v>1.1226851851851899E-2</v>
       </c>
+      <c r="E219">
+        <v>0</v>
+      </c>
+      <c r="F219">
+        <v>0</v>
+      </c>
+      <c r="G219">
+        <v>0</v>
+      </c>
       <c r="H219">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I219">
+        <v>1</v>
+      </c>
+      <c r="J219" t="s">
+        <v>67</v>
+      </c>
+      <c r="L219" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A220">
         <v>40</v>
       </c>
@@ -59611,12 +63172,27 @@
       <c r="D220" s="4">
         <v>1.13425925925926E-2</v>
       </c>
+      <c r="E220">
+        <v>0</v>
+      </c>
+      <c r="F220">
+        <v>0</v>
+      </c>
+      <c r="G220">
+        <v>0</v>
+      </c>
       <c r="H220">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I220">
+        <v>1</v>
+      </c>
+      <c r="J220" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A221">
         <v>40</v>
       </c>
@@ -59629,12 +63205,24 @@
       <c r="D221" s="4">
         <v>1.14583333333333E-2</v>
       </c>
+      <c r="E221">
+        <v>0</v>
+      </c>
+      <c r="F221">
+        <v>0</v>
+      </c>
+      <c r="G221">
+        <v>0</v>
+      </c>
       <c r="H221">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A222">
         <v>40</v>
       </c>
@@ -59647,12 +63235,24 @@
       <c r="D222" s="4">
         <v>1.1574074074074099E-2</v>
       </c>
+      <c r="E222">
+        <v>1</v>
+      </c>
+      <c r="F222">
+        <v>0</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
       <c r="H222">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A223">
         <v>40</v>
       </c>
@@ -59665,12 +63265,24 @@
       <c r="D223" s="4">
         <v>1.16898148148148E-2</v>
       </c>
+      <c r="E223">
+        <v>0</v>
+      </c>
+      <c r="F223">
+        <v>1</v>
+      </c>
+      <c r="G223">
+        <v>26</v>
+      </c>
       <c r="H223">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A224">
         <v>40</v>
       </c>
@@ -59683,12 +63295,27 @@
       <c r="D224" s="4">
         <v>1.18055555555556E-2</v>
       </c>
+      <c r="E224">
+        <v>0</v>
+      </c>
+      <c r="F224">
+        <v>1</v>
+      </c>
+      <c r="G224">
+        <v>4</v>
+      </c>
       <c r="H224">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+      <c r="I224">
+        <v>2</v>
+      </c>
+      <c r="J224" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="225" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A225">
         <v>40</v>
       </c>
@@ -59701,12 +63328,24 @@
       <c r="D225" s="4">
         <v>1.19212962962963E-2</v>
       </c>
+      <c r="E225">
+        <v>1</v>
+      </c>
+      <c r="F225">
+        <v>0</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
       <c r="H225">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A226">
         <v>40</v>
       </c>
@@ -59719,12 +63358,24 @@
       <c r="D226" s="4">
         <v>1.2037037037037001E-2</v>
       </c>
+      <c r="E226">
+        <v>0</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
       <c r="H226">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A227">
         <v>40</v>
       </c>
@@ -59737,12 +63388,24 @@
       <c r="D227" s="4">
         <v>1.2152777777777801E-2</v>
       </c>
+      <c r="E227">
+        <v>2</v>
+      </c>
+      <c r="F227">
+        <v>0</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
       <c r="H227">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A228">
         <v>40</v>
       </c>
@@ -59755,12 +63418,24 @@
       <c r="D228" s="4">
         <v>1.22685185185185E-2</v>
       </c>
+      <c r="E228">
+        <v>0</v>
+      </c>
+      <c r="F228">
+        <v>0</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
       <c r="H228">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A229">
         <v>40</v>
       </c>
@@ -59773,12 +63448,24 @@
       <c r="D229" s="4">
         <v>1.23842592592593E-2</v>
       </c>
+      <c r="E229">
+        <v>0</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
       <c r="H229">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A230">
         <v>40</v>
       </c>
@@ -59791,12 +63478,24 @@
       <c r="D230" s="4">
         <v>1.2500000000000001E-2</v>
       </c>
+      <c r="E230">
+        <v>0</v>
+      </c>
+      <c r="F230">
+        <v>0</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
       <c r="H230">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A231">
         <v>40</v>
       </c>
@@ -59809,12 +63508,24 @@
       <c r="D231" s="4">
         <v>1.26157407407407E-2</v>
       </c>
+      <c r="E231">
+        <v>5</v>
+      </c>
+      <c r="F231">
+        <v>1</v>
+      </c>
+      <c r="G231">
+        <v>3</v>
+      </c>
       <c r="H231">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.45">
+        <v>8</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A232">
         <v>40</v>
       </c>
@@ -59827,12 +63538,24 @@
       <c r="D232" s="4">
         <v>1.27314814814815E-2</v>
       </c>
+      <c r="E232">
+        <v>0</v>
+      </c>
+      <c r="F232">
+        <v>0</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
       <c r="H232">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A233">
         <v>40</v>
       </c>
@@ -59845,12 +63568,24 @@
       <c r="D233" s="4">
         <v>1.2847222222222201E-2</v>
       </c>
+      <c r="E233">
+        <v>0</v>
+      </c>
+      <c r="F233">
+        <v>0</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
       <c r="H233">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A234">
         <v>40</v>
       </c>
@@ -59863,12 +63598,24 @@
       <c r="D234" s="4">
         <v>1.2962962962963001E-2</v>
       </c>
+      <c r="E234">
+        <v>0</v>
+      </c>
+      <c r="F234">
+        <v>0</v>
+      </c>
+      <c r="G234">
+        <v>0</v>
+      </c>
       <c r="H234">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A235">
         <v>40</v>
       </c>
@@ -59881,12 +63628,24 @@
       <c r="D235" s="4">
         <v>1.30787037037037E-2</v>
       </c>
+      <c r="E235">
+        <v>0</v>
+      </c>
+      <c r="F235">
+        <v>0</v>
+      </c>
+      <c r="G235">
+        <v>0</v>
+      </c>
       <c r="H235">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A236">
         <v>40</v>
       </c>
@@ -59899,12 +63658,24 @@
       <c r="D236" s="4">
         <v>1.3194444444444399E-2</v>
       </c>
+      <c r="E236">
+        <v>2</v>
+      </c>
+      <c r="F236">
+        <v>0</v>
+      </c>
+      <c r="G236">
+        <v>0</v>
+      </c>
       <c r="H236">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.45">
+        <v>2</v>
+      </c>
+      <c r="I236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A237">
         <v>40</v>
       </c>
@@ -59917,12 +63688,27 @@
       <c r="D237" s="4">
         <v>1.3310185185185199E-2</v>
       </c>
+      <c r="E237">
+        <v>0</v>
+      </c>
+      <c r="F237">
+        <v>0</v>
+      </c>
+      <c r="G237">
+        <v>0</v>
+      </c>
       <c r="H237">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I237">
+        <v>1</v>
+      </c>
+      <c r="J237" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="238" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A238">
         <v>40</v>
       </c>
@@ -59935,12 +63721,24 @@
       <c r="D238" s="4">
         <v>1.34259259259259E-2</v>
       </c>
+      <c r="E238">
+        <v>0</v>
+      </c>
+      <c r="F238">
+        <v>0</v>
+      </c>
+      <c r="G238">
+        <v>0</v>
+      </c>
       <c r="H238">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A239">
         <v>40</v>
       </c>
@@ -59953,12 +63751,24 @@
       <c r="D239" s="4">
         <v>1.35416666666667E-2</v>
       </c>
+      <c r="E239">
+        <v>0</v>
+      </c>
+      <c r="F239">
+        <v>0</v>
+      </c>
+      <c r="G239">
+        <v>0</v>
+      </c>
       <c r="H239">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A240">
         <v>40</v>
       </c>
@@ -59971,12 +63781,24 @@
       <c r="D240" s="4">
         <v>1.3657407407407399E-2</v>
       </c>
+      <c r="E240">
+        <v>0</v>
+      </c>
+      <c r="F240">
+        <v>0</v>
+      </c>
+      <c r="G240">
+        <v>0</v>
+      </c>
       <c r="H240">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A241">
         <v>40</v>
       </c>
@@ -59989,12 +63811,24 @@
       <c r="D241" s="4">
         <v>1.37731481481481E-2</v>
       </c>
+      <c r="E241">
+        <v>1</v>
+      </c>
+      <c r="F241">
+        <v>0</v>
+      </c>
+      <c r="G241">
+        <v>0</v>
+      </c>
       <c r="H241">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.45">
+        <v>1</v>
+      </c>
+      <c r="I241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A242">
         <v>40</v>
       </c>
@@ -60012,7 +63846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A243">
         <v>40</v>
       </c>
@@ -60030,7 +63864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A244">
         <v>40</v>
       </c>
@@ -60048,7 +63882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A245">
         <v>40</v>
       </c>
@@ -60066,7 +63900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A246">
         <v>40</v>
       </c>
@@ -60084,7 +63918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A247">
         <v>40</v>
       </c>
@@ -60102,7 +63936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A248">
         <v>40</v>
       </c>
@@ -60120,7 +63954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A249">
         <v>40</v>
       </c>
@@ -60138,7 +63972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A250">
         <v>40</v>
       </c>
@@ -60156,7 +63990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A251">
         <v>40</v>
       </c>
@@ -60174,7 +64008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A252">
         <v>40</v>
       </c>
@@ -60192,7 +64026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A253">
         <v>40</v>
       </c>
@@ -60210,7 +64044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A254">
         <v>40</v>
       </c>
@@ -60228,7 +64062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A255">
         <v>40</v>
       </c>
@@ -60246,7 +64080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A256">
         <v>40</v>
       </c>
